--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7735" uniqueCount="3389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="3485">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -12369,12 +12369,1041 @@
   <si>
     <t>Nếu ko sẽ báo lỗi RUNTIME Exception</t>
   </si>
+  <si>
+    <t>1. List&lt;Father&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <t>2. ArrayList&lt;Father&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <t>3. List&lt;Son&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <t>4. ArrayList&lt;Son&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <t>5. List&lt;GrandSon&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <t>6. ArrayList&lt;GrandSon&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <t>7. List&lt;Object&gt; get() {return null;}</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> java.util.*;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Father {}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Father {}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> GrandSon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Son {}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Super {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> List&lt;Father&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Sub </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Super {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF6A6F73"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/*INSERT*/</t>
+    </r>
+  </si>
+  <si>
+    <t>ArrayList là lớp con của  List, Vì vậy  1 và 2 là hợp lệ</t>
+  </si>
+  <si>
+    <t>Lưu ý : mặc dù Son là con của Father, nhưng List&lt;Son&gt; ko phải là con của List&lt;Father&gt;</t>
+  </si>
+  <si>
+    <t>54. Tricky: Null vẫn cast được :D</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Base {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A6F73"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Line n1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"BASE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Derived </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Base {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A6F73"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Line n2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DERIVED"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Test {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> main(String[] args) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Base b = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived d = (Derived) b; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A6F73"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Line n3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A6F73"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Line n4</t>
+    </r>
+  </si>
+  <si>
+    <t>// OK. Null vẫn cast được</t>
+  </si>
+  <si>
+    <t>// Vì gọi static method thông qua instace. Nên null vẫn gọi được</t>
+  </si>
+  <si>
+    <t>// Ngoài ra thì đối với kế thừa thì static method hiểu là hidden method. Nên nó sẽ phụ thuộc vào kiểu dl của biến reference D</t>
+  </si>
+  <si>
+    <t>// Bonus:</t>
+  </si>
+  <si>
+    <t>Nếu như Base b = new Base();</t>
+  </si>
+  <si>
+    <t>Derived d = (Derived) b;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Exception vì ép kiểu cha về kiểu con. Kể cả khai báo cast tường minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface con có thể override method abstract ở Interface cha, và biến nó thành 1 method default </t>
+  </si>
+  <si>
+    <t>// OUTPUT : X3</t>
+  </si>
+  <si>
+    <t>public interface X2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void print();</t>
+  </si>
+  <si>
+    <t>public interface X3 extends X2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default void print(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("X3");</t>
+  </si>
+  <si>
+    <t>public class TestMain implements X3 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TestMain obj = new TestMain();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        obj.print();</t>
+  </si>
+  <si>
+    <t>Basic/Regular for loop has following form:</t>
+  </si>
+  <si>
+    <t>for ( [ForInit] ; [Expression] ; [ForUpdate] ) {...}</t>
+  </si>
+  <si>
+    <t>[ForInit] can be local variable initialization or the following expressions:</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>PreIncrementExpression</t>
+  </si>
+  <si>
+    <t>PreDecrementExpression</t>
+  </si>
+  <si>
+    <t>PostIncrementExpression</t>
+  </si>
+  <si>
+    <t>PostDecrementExpression</t>
+  </si>
+  <si>
+    <t>MethodInvocation</t>
+  </si>
+  <si>
+    <t>ClassInstanceCreationExpression</t>
+  </si>
+  <si>
+    <t>[ForUpdate] can be following expressions:</t>
+  </si>
+  <si>
+    <t>57. Hàm replace trong String</t>
+  </si>
+  <si>
+    <t>1. public String replace(char oldChar, char newChar) {}:</t>
+  </si>
+  <si>
+    <t>Returns a string resulting from replacing all occurrences of oldChar in this string with newChar. If no replacement is done, then source String object is returned. e.g.</t>
+  </si>
+  <si>
+    <t>"Java".replace('a', 'A') --&gt; returns new String object "JAvA".</t>
+  </si>
+  <si>
+    <t>"Java".replace('a', 'a') --&gt; returns the source String object "Java" (no change).</t>
+  </si>
+  <si>
+    <t>"Java".replace('m', 'M') --&gt; returns the source String object "Java" (no change).</t>
+  </si>
+  <si>
+    <t>2. public String replace(CharSequence target, CharSequence replacement) {}:</t>
+  </si>
+  <si>
+    <t>Returns a new String object after replacing each substring of this string that matches the literal target sequence with the specified literal replacement sequence. e.g.</t>
+  </si>
+  <si>
+    <t>"Java".replace("a", "A") --&gt; returns new String object "JAvA".</t>
+  </si>
+  <si>
+    <t>"Java".replace("a", "a") --&gt; returns new String object "Java" (it replaces "a" with "a").</t>
+  </si>
+  <si>
+    <t>"Java".replace("m", "M") --&gt; returns the source String object "Java" (no change).</t>
+  </si>
+  <si>
+    <r>
+      <t>package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> com.udayankhattry.oca;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Perishable1 {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> maxDays() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Perishable2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Perishable1 {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Milk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Perishable2, Perishable1 {}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perishable1 obj = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Milk();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(obj.maxDays());</t>
+    </r>
+  </si>
+  <si>
+    <t>There is no conflict in Milk class as it inherits the default method maxDays() of Perishable2 interface. Milk class compiles successfully.</t>
+  </si>
+  <si>
+    <t>`Perishable1 obj = new Milk();` It compiles fine as Perishable1 is supertype and Milk is subtype.</t>
+  </si>
+  <si>
+    <t>`obj.maxDays()` executes the default maxDays() method of Perishable2 interface and it returns 2. `System.out.println(obj.maxDays());` prints 2 on to the console.</t>
+  </si>
+  <si>
+    <t>58. Không được khởi tạo Exception mới trong khối catch</t>
+  </si>
+  <si>
+    <t>package com.udayankhattry.oca;</t>
+  </si>
+  <si>
+    <t>import java.sql.SQLException;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static void getData() throws SQLException {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            throw new SQLException();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            e = new SQLException();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            throw e;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            getData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } catch(SQLException e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("SQL");</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Ans </t>
+  </si>
+  <si>
+    <t>End Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Page </t>
+  </si>
+  <si>
+    <t>238/2513</t>
+  </si>
+  <si>
+    <t>317/2513</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="149">
+  <fonts count="155">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13345,6 +14374,46 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFB4690E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF6A6F73"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A6F73"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -13558,7 +14627,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14160,14 +15229,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15869,8 +16954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S701"/>
   <sheetViews>
-    <sheetView topLeftCell="A640" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E646" sqref="E646"/>
+    <sheetView topLeftCell="A580" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N491" sqref="N491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18643,16 +19728,16 @@
       <c r="C562" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D562" s="279" t="s">
+      <c r="D562" s="286" t="s">
         <v>219</v>
       </c>
-      <c r="E562" s="279"/>
-      <c r="F562" s="279"/>
-      <c r="G562" s="279"/>
-      <c r="H562" s="279"/>
-      <c r="I562" s="279"/>
-      <c r="J562" s="279"/>
-      <c r="K562" s="279"/>
+      <c r="E562" s="286"/>
+      <c r="F562" s="286"/>
+      <c r="G562" s="286"/>
+      <c r="H562" s="286"/>
+      <c r="I562" s="286"/>
+      <c r="J562" s="286"/>
+      <c r="K562" s="286"/>
       <c r="L562" s="3" t="s">
         <v>89</v>
       </c>
@@ -18719,16 +19804,16 @@
       <c r="C568" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D568" s="279" t="s">
+      <c r="D568" s="286" t="s">
         <v>232</v>
       </c>
-      <c r="E568" s="279"/>
-      <c r="F568" s="279"/>
-      <c r="G568" s="279"/>
-      <c r="H568" s="279"/>
-      <c r="I568" s="279"/>
-      <c r="J568" s="279"/>
-      <c r="K568" s="279"/>
+      <c r="E568" s="286"/>
+      <c r="F568" s="286"/>
+      <c r="G568" s="286"/>
+      <c r="H568" s="286"/>
+      <c r="I568" s="286"/>
+      <c r="J568" s="286"/>
+      <c r="K568" s="286"/>
       <c r="L568" s="3" t="s">
         <v>41</v>
       </c>
@@ -20212,14 +21297,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20317,98 +21404,123 @@
       <c r="D12" s="67">
         <v>7</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>2691</v>
+      </c>
       <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:7">
       <c r="D13" s="67">
         <v>8</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:7">
       <c r="D14" s="67">
         <v>9</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:7">
       <c r="D15" s="67">
         <v>10</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="67" t="s">
+        <v>1361</v>
+      </c>
       <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" s="67">
         <v>11</v>
       </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="F16" s="67"/>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="67">
         <v>12</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="F17" s="67"/>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="67">
         <v>13</v>
       </c>
-      <c r="E18" s="67"/>
       <c r="F18" s="67"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="67">
         <v>14</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="F19" s="67"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="67">
         <v>15</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="F20" s="67"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="67">
         <v>16</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="67" t="s">
+        <v>1738</v>
+      </c>
       <c r="F21" s="67"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="67">
         <v>17</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="F22" s="67"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="67">
         <v>18</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="277" t="s">
+        <v>208</v>
+      </c>
       <c r="F23" s="67"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="67">
         <v>19</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="F24" s="67"/>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="67">
         <v>20</v>
       </c>
-      <c r="E25" s="67"/>
+      <c r="E25" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="F25" s="67"/>
     </row>
     <row r="26" spans="4:6">
@@ -20460,26 +21572,768 @@
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="2:6">
       <c r="D33" s="67">
         <v>28</v>
       </c>
       <c r="E33" s="67"/>
       <c r="F33" s="67"/>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="2:6">
       <c r="D34" s="67">
         <v>29</v>
       </c>
       <c r="E34" s="67"/>
       <c r="F34" s="67"/>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="2:6">
       <c r="D35" s="67">
         <v>30</v>
       </c>
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="D36" s="67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="D37" s="67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="D38" s="67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="D39" s="67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="D40" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="57" customFormat="1">
+      <c r="B42" s="57" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="C43" s="39" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="71" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="67">
+        <v>1</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="67">
+        <v>2</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="67">
+        <v>3</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="67">
+        <v>4</v>
+      </c>
+      <c r="C48" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="67">
+        <v>5</v>
+      </c>
+      <c r="C49" s="277" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="67">
+        <v>6</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="67">
+        <v>7</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="67">
+        <v>8</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="67">
+        <v>9</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="67">
+        <v>10</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="67">
+        <v>11</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="67">
+        <v>12</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="67"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="67">
+        <v>13</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="67">
+        <v>14</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="67">
+        <v>15</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="67">
+        <v>16</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="67"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="67">
+        <v>17</v>
+      </c>
+      <c r="C61" s="277" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="67"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="67">
+        <v>18</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="67">
+        <v>19</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="67"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="67">
+        <v>20</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="67"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="67">
+        <v>21</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="67"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="67">
+        <v>22</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D66" s="67"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="67">
+        <v>23</v>
+      </c>
+      <c r="C67" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="67"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="67">
+        <v>24</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="67"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="67">
+        <v>25</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="67"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="67">
+        <v>26</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="67"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="67">
+        <v>27</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" s="67"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="67">
+        <v>28</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" s="67"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="67">
+        <v>29</v>
+      </c>
+      <c r="C73" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="67"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="67">
+        <v>30</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="67"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="67">
+        <v>31</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="67"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="67">
+        <v>32</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D76" s="67"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="67">
+        <v>33</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="67"/>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="67">
+        <v>34</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="67"/>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="67">
+        <v>35</v>
+      </c>
+      <c r="C79" s="277" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="67"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="67">
+        <v>36</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="67"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="67">
+        <v>37</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="67"/>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="67">
+        <v>38</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="67"/>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="67">
+        <v>39</v>
+      </c>
+      <c r="C83" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="67"/>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="67">
+        <v>40</v>
+      </c>
+      <c r="C84" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="67"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="67">
+        <v>41</v>
+      </c>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="67">
+        <v>42</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="67"/>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="67">
+        <v>43</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="67"/>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="67">
+        <v>44</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="67"/>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="67">
+        <v>45</v>
+      </c>
+      <c r="C89" s="277" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="67"/>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="67">
+        <v>46</v>
+      </c>
+      <c r="C90" s="67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D90" s="67"/>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="67">
+        <v>47</v>
+      </c>
+      <c r="C91" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="67"/>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="67">
+        <v>48</v>
+      </c>
+      <c r="C92" s="287"/>
+      <c r="D92" s="67"/>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="67">
+        <v>49</v>
+      </c>
+      <c r="C93" s="277" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D93" s="67"/>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="67">
+        <v>50</v>
+      </c>
+      <c r="C94" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="67"/>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="67">
+        <v>51</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="67"/>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="67">
+        <v>52</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="67"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="67">
+        <v>53</v>
+      </c>
+      <c r="C97" s="277" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D97" s="67"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="67">
+        <v>54</v>
+      </c>
+      <c r="C98" s="277" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="67"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="67">
+        <v>55</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D99" s="67"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="67">
+        <v>56</v>
+      </c>
+      <c r="C100" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="67"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="67">
+        <v>57</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="67"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="67">
+        <v>58</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D102" s="67"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="67">
+        <v>59</v>
+      </c>
+      <c r="C103" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="67"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="67">
+        <v>60</v>
+      </c>
+      <c r="C104" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="67"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="67">
+        <v>61</v>
+      </c>
+      <c r="C105" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="67"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="67">
+        <v>62</v>
+      </c>
+      <c r="C106" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="67"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="67">
+        <v>63</v>
+      </c>
+      <c r="C107" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" s="67"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="67">
+        <v>64</v>
+      </c>
+      <c r="C108" s="67" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D108" s="67"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="67">
+        <v>65</v>
+      </c>
+      <c r="C109" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" s="67"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="67">
+        <v>66</v>
+      </c>
+      <c r="C110" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="67"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="67">
+        <v>67</v>
+      </c>
+      <c r="C111" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" s="67"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="67">
+        <v>68</v>
+      </c>
+      <c r="C112" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="67"/>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="67">
+        <v>69</v>
+      </c>
+      <c r="C113" s="67" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D113" s="67"/>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="67">
+        <v>70</v>
+      </c>
+      <c r="C114" s="67" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D114" s="67"/>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="67">
+        <v>71</v>
+      </c>
+      <c r="C115" s="67" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D115" s="67"/>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="67">
+        <v>72</v>
+      </c>
+      <c r="C116" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="67"/>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="67">
+        <v>73</v>
+      </c>
+      <c r="C117" s="67" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D117" s="67"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="67">
+        <v>74</v>
+      </c>
+      <c r="C118" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="67"/>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="67">
+        <v>75</v>
+      </c>
+      <c r="C119" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="67"/>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="67">
+        <v>76</v>
+      </c>
+      <c r="C120" s="67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="67">
+        <v>77</v>
+      </c>
+      <c r="C121" s="67" t="s">
+        <v>1357</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20489,10 +22343,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL1022"/>
+  <dimension ref="A2:AL1238"/>
   <sheetViews>
-    <sheetView topLeftCell="A997" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1018" sqref="F1018"/>
+    <sheetView topLeftCell="A1209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1225" sqref="J1225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -24918,17 +26772,17 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="945" spans="1:12">
+    <row r="945" spans="2:12">
       <c r="D945" s="58" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="946" spans="1:12">
+    <row r="946" spans="2:12">
       <c r="D946" s="58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="949" spans="1:12">
+    <row r="949" spans="2:12">
       <c r="D949" s="58" t="s">
         <v>3314</v>
       </c>
@@ -24936,251 +26790,1073 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="950" spans="1:12">
+    <row r="950" spans="2:12">
       <c r="D950" s="79"/>
       <c r="L950" s="120" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="951" spans="1:12">
+    <row r="951" spans="2:12">
       <c r="D951" s="58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="953" spans="1:12">
+    <row r="953" spans="2:12">
       <c r="B953" s="120" t="s">
         <v>3317</v>
       </c>
     </row>
-    <row r="957" spans="1:12" s="222" customFormat="1">
-      <c r="A957" s="222" t="s">
+    <row r="954" spans="2:12">
+      <c r="D954" s="279" t="s">
+        <v>3457</v>
+      </c>
+      <c r="K954" s="120" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="955" spans="2:12">
+      <c r="D955" s="280"/>
+    </row>
+    <row r="956" spans="2:12">
+      <c r="D956" s="279" t="s">
+        <v>3458</v>
+      </c>
+      <c r="K956" s="120" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="957" spans="2:12">
+      <c r="D957" s="279" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="958" spans="2:12">
+      <c r="D958" s="279" t="s">
+        <v>3460</v>
+      </c>
+      <c r="K958" s="120" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="959" spans="2:12">
+      <c r="D959" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="960" spans="2:12">
+      <c r="D960" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="961" spans="4:4">
+      <c r="D961" s="280"/>
+    </row>
+    <row r="962" spans="4:4">
+      <c r="D962" s="279" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="963" spans="4:4">
+      <c r="D963" s="279" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="964" spans="4:4">
+      <c r="D964" s="279" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="965" spans="4:4">
+      <c r="D965" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="966" spans="4:4">
+      <c r="D966" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="967" spans="4:4">
+      <c r="D967" s="280"/>
+    </row>
+    <row r="968" spans="4:4">
+      <c r="D968" s="279" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="969" spans="4:4">
+      <c r="D969" s="280"/>
+    </row>
+    <row r="970" spans="4:4">
+      <c r="D970" s="279" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="971" spans="4:4">
+      <c r="D971" s="279" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="972" spans="4:4">
+      <c r="D972" s="280" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="973" spans="4:4">
+      <c r="D973" s="280" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="974" spans="4:4">
+      <c r="D974" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="975" spans="4:4">
+      <c r="D975" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" ht="15" customHeight="1"/>
+    <row r="1002" spans="1:2" s="222" customFormat="1">
+      <c r="A1002" s="222" t="s">
         <v>3329</v>
       </c>
     </row>
-    <row r="960" spans="1:12">
-      <c r="B960" s="120" t="s">
+    <row r="1005" spans="1:2">
+      <c r="B1005" s="120" t="s">
         <v>3330</v>
       </c>
     </row>
-    <row r="962" spans="2:10">
-      <c r="B962" s="120" t="s">
+    <row r="1007" spans="1:2">
+      <c r="B1007" s="120" t="s">
         <v>3331</v>
       </c>
     </row>
-    <row r="964" spans="2:10">
-      <c r="B964" s="120" t="s">
+    <row r="1009" spans="2:10">
+      <c r="B1009" s="120" t="s">
         <v>3332</v>
       </c>
     </row>
-    <row r="967" spans="2:10">
-      <c r="C967" s="58" t="s">
+    <row r="1012" spans="2:10">
+      <c r="C1012" s="58" t="s">
         <v>3352</v>
       </c>
     </row>
-    <row r="968" spans="2:10">
-      <c r="C968" s="58" t="s">
+    <row r="1013" spans="2:10">
+      <c r="C1013" s="58" t="s">
         <v>3353</v>
       </c>
     </row>
-    <row r="969" spans="2:10">
-      <c r="C969" s="79"/>
-    </row>
-    <row r="970" spans="2:10">
-      <c r="C970" s="79"/>
-    </row>
-    <row r="971" spans="2:10">
-      <c r="C971" s="58" t="s">
+    <row r="1014" spans="2:10">
+      <c r="C1014" s="79"/>
+    </row>
+    <row r="1015" spans="2:10">
+      <c r="C1015" s="79"/>
+    </row>
+    <row r="1016" spans="2:10">
+      <c r="C1016" s="58" t="s">
         <v>3354</v>
       </c>
     </row>
-    <row r="972" spans="2:10">
-      <c r="C972" s="79"/>
-    </row>
-    <row r="973" spans="2:10">
-      <c r="C973" s="58" t="s">
+    <row r="1017" spans="2:10">
+      <c r="C1017" s="79"/>
+    </row>
+    <row r="1018" spans="2:10">
+      <c r="C1018" s="58" t="s">
         <v>3355</v>
       </c>
     </row>
-    <row r="974" spans="2:10">
-      <c r="C974" s="79"/>
-    </row>
-    <row r="975" spans="2:10">
-      <c r="C975" s="79"/>
-    </row>
-    <row r="976" spans="2:10">
-      <c r="C976" s="58" t="s">
+    <row r="1019" spans="2:10">
+      <c r="C1019" s="79"/>
+    </row>
+    <row r="1020" spans="2:10">
+      <c r="C1020" s="79"/>
+    </row>
+    <row r="1021" spans="2:10">
+      <c r="C1021" s="58" t="s">
         <v>3356</v>
       </c>
-      <c r="J976" s="120" t="s">
+      <c r="J1021" s="120" t="s">
         <v>3333</v>
       </c>
     </row>
-    <row r="977" spans="1:10">
-      <c r="C977" s="58" t="s">
+    <row r="1022" spans="2:10">
+      <c r="C1022" s="58" t="s">
         <v>3357</v>
       </c>
-      <c r="J977" s="120" t="s">
+      <c r="J1022" s="120" t="s">
         <v>3334</v>
       </c>
     </row>
-    <row r="981" spans="1:10" s="222" customFormat="1">
-      <c r="A981" s="222" t="s">
+    <row r="1026" spans="1:3" s="222" customFormat="1">
+      <c r="A1026" s="222" t="s">
         <v>3358</v>
       </c>
     </row>
-    <row r="984" spans="1:10">
-      <c r="C984" s="58" t="s">
+    <row r="1029" spans="1:3">
+      <c r="C1029" s="58" t="s">
         <v>3360</v>
       </c>
     </row>
-    <row r="985" spans="1:10">
-      <c r="C985" s="79"/>
-    </row>
-    <row r="986" spans="1:10">
-      <c r="C986" s="58" t="s">
+    <row r="1030" spans="1:3">
+      <c r="C1030" s="79"/>
+    </row>
+    <row r="1031" spans="1:3">
+      <c r="C1031" s="58" t="s">
         <v>3361</v>
       </c>
     </row>
-    <row r="987" spans="1:10">
-      <c r="C987" s="79"/>
-    </row>
-    <row r="988" spans="1:10">
-      <c r="C988" s="58" t="s">
+    <row r="1032" spans="1:3">
+      <c r="C1032" s="79"/>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="C1033" s="58" t="s">
         <v>3362</v>
       </c>
     </row>
-    <row r="989" spans="1:10">
-      <c r="C989" s="58" t="s">
+    <row r="1034" spans="1:3">
+      <c r="C1034" s="58" t="s">
         <v>3227</v>
       </c>
     </row>
-    <row r="990" spans="1:10">
-      <c r="C990" s="58" t="s">
+    <row r="1035" spans="1:3">
+      <c r="C1035" s="58" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="991" spans="1:10">
-      <c r="C991" s="79"/>
-    </row>
-    <row r="992" spans="1:10">
-      <c r="C992" s="58" t="s">
+    <row r="1036" spans="1:3">
+      <c r="C1036" s="79"/>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="C1037" s="58" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="993" spans="3:9">
-      <c r="C993" s="58" t="s">
+    <row r="1038" spans="1:3">
+      <c r="C1038" s="58" t="s">
         <v>3363</v>
       </c>
     </row>
-    <row r="994" spans="3:9">
-      <c r="C994" s="58" t="s">
+    <row r="1039" spans="1:3">
+      <c r="C1039" s="58" t="s">
         <v>3364</v>
       </c>
     </row>
-    <row r="995" spans="3:9">
-      <c r="C995" s="58" t="s">
+    <row r="1040" spans="1:3">
+      <c r="C1040" s="58" t="s">
         <v>3365</v>
       </c>
     </row>
-    <row r="996" spans="3:9">
-      <c r="C996" s="79"/>
-    </row>
-    <row r="997" spans="3:9">
-      <c r="C997" s="58" t="s">
+    <row r="1041" spans="3:9">
+      <c r="C1041" s="79"/>
+    </row>
+    <row r="1042" spans="3:9">
+      <c r="C1042" s="58" t="s">
         <v>3366</v>
       </c>
-      <c r="I997" s="120" t="s">
+      <c r="I1042" s="120" t="s">
         <v>3359</v>
       </c>
     </row>
-    <row r="998" spans="3:9">
-      <c r="C998" s="58" t="s">
+    <row r="1043" spans="3:9">
+      <c r="C1043" s="58" t="s">
         <v>605</v>
       </c>
-      <c r="I998" s="120" t="s">
+      <c r="I1043" s="120" t="s">
         <v>3367</v>
       </c>
     </row>
-    <row r="999" spans="3:9">
-      <c r="C999" s="58" t="s">
+    <row r="1044" spans="3:9">
+      <c r="C1044" s="58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="1003" spans="3:9">
-      <c r="C1003" s="120" t="s">
+    <row r="1048" spans="3:9">
+      <c r="C1048" s="120" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="1005" spans="3:9">
-      <c r="D1005" s="58" t="s">
+    <row r="1050" spans="3:9">
+      <c r="D1050" s="58" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1006" spans="3:9">
-      <c r="D1006" s="58" t="s">
+    <row r="1051" spans="3:9">
+      <c r="D1051" s="58" t="s">
         <v>3369</v>
       </c>
     </row>
-    <row r="1007" spans="3:9">
-      <c r="D1007" s="79"/>
-    </row>
-    <row r="1008" spans="3:9">
-      <c r="D1008" s="58" t="s">
+    <row r="1052" spans="3:9">
+      <c r="D1052" s="79"/>
+    </row>
+    <row r="1053" spans="3:9">
+      <c r="D1053" s="58" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="1009" spans="1:4">
-      <c r="D1009" s="58" t="s">
+    <row r="1054" spans="3:9">
+      <c r="D1054" s="58" t="s">
         <v>3371</v>
       </c>
     </row>
-    <row r="1010" spans="1:4">
-      <c r="D1010" s="79"/>
-    </row>
-    <row r="1011" spans="1:4">
-      <c r="D1011" s="58" t="s">
+    <row r="1055" spans="3:9">
+      <c r="D1055" s="79"/>
+    </row>
+    <row r="1056" spans="3:9">
+      <c r="D1056" s="58" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="1012" spans="1:4">
-      <c r="D1012" s="58" t="s">
+    <row r="1057" spans="1:4">
+      <c r="D1057" s="58" t="s">
         <v>3373</v>
       </c>
     </row>
-    <row r="1013" spans="1:4">
-      <c r="D1013" s="79"/>
-    </row>
-    <row r="1014" spans="1:4">
-      <c r="D1014" s="58" t="s">
+    <row r="1058" spans="1:4">
+      <c r="D1058" s="79"/>
+    </row>
+    <row r="1059" spans="1:4">
+      <c r="D1059" s="58" t="s">
         <v>3374</v>
       </c>
     </row>
-    <row r="1015" spans="1:4">
-      <c r="D1015" s="58" t="s">
+    <row r="1060" spans="1:4">
+      <c r="D1060" s="58" t="s">
         <v>3375</v>
       </c>
     </row>
-    <row r="1016" spans="1:4">
-      <c r="D1016" s="58" t="s">
+    <row r="1061" spans="1:4">
+      <c r="D1061" s="58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" s="222" customFormat="1">
-      <c r="A1018" s="238">
+    <row r="1063" spans="1:4" s="222" customFormat="1">
+      <c r="A1063" s="238">
         <v>52</v>
       </c>
-      <c r="B1018" s="222" t="s">
+      <c r="B1063" s="222" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="1021" spans="1:4">
-      <c r="C1021" s="120" t="s">
+    <row r="1066" spans="1:4">
+      <c r="C1066" s="120" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="1022" spans="1:4">
-      <c r="C1022" s="120" t="s">
+    <row r="1067" spans="1:4">
+      <c r="C1067" s="120" t="s">
         <v>3385</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" s="222" customFormat="1">
+      <c r="A1070" s="222">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" ht="17.25">
+      <c r="B1072" s="281"/>
+    </row>
+    <row r="1073" spans="2:27">
+      <c r="B1073" s="282"/>
+    </row>
+    <row r="1074" spans="2:27" ht="17.25">
+      <c r="B1074" s="283" t="s">
+        <v>3396</v>
+      </c>
+      <c r="H1074" s="227" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I1074" s="227"/>
+      <c r="J1074" s="227"/>
+      <c r="K1074" s="227"/>
+      <c r="L1074" s="227"/>
+      <c r="M1074" s="227"/>
+      <c r="N1074" s="227"/>
+      <c r="O1074" s="285" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:27">
+      <c r="B1075" s="284"/>
+      <c r="H1075" s="227"/>
+      <c r="I1075" s="227"/>
+      <c r="J1075" s="227"/>
+      <c r="K1075" s="227"/>
+      <c r="L1075" s="227"/>
+      <c r="M1075" s="227"/>
+      <c r="N1075" s="227"/>
+    </row>
+    <row r="1076" spans="2:27" ht="17.25">
+      <c r="B1076" s="283" t="s">
+        <v>3397</v>
+      </c>
+      <c r="H1076" s="227" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I1076" s="227"/>
+      <c r="J1076" s="227"/>
+      <c r="K1076" s="227"/>
+      <c r="L1076" s="227"/>
+      <c r="M1076" s="227"/>
+      <c r="N1076" s="227"/>
+      <c r="O1076" s="285" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:27">
+      <c r="B1077" s="284"/>
+    </row>
+    <row r="1078" spans="2:27">
+      <c r="B1078" s="283" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H1078" s="213" t="s">
+        <v>3391</v>
+      </c>
+      <c r="I1078" s="213"/>
+      <c r="J1078" s="213"/>
+      <c r="K1078" s="213"/>
+      <c r="L1078" s="213"/>
+      <c r="M1078" s="213"/>
+      <c r="O1078" s="272" t="s">
+        <v>3405</v>
+      </c>
+      <c r="P1078" s="272"/>
+      <c r="Q1078" s="272"/>
+      <c r="R1078" s="272"/>
+      <c r="S1078" s="272"/>
+      <c r="T1078" s="272"/>
+      <c r="U1078" s="272"/>
+      <c r="V1078" s="272"/>
+      <c r="W1078" s="272"/>
+      <c r="X1078" s="272"/>
+      <c r="Y1078" s="272"/>
+      <c r="Z1078" s="272"/>
+      <c r="AA1078" s="213"/>
+    </row>
+    <row r="1079" spans="2:27">
+      <c r="B1079" s="284"/>
+      <c r="H1079" s="213"/>
+      <c r="I1079" s="213"/>
+      <c r="J1079" s="213"/>
+      <c r="K1079" s="213"/>
+      <c r="L1079" s="213"/>
+      <c r="M1079" s="213"/>
+    </row>
+    <row r="1080" spans="2:27">
+      <c r="B1080" s="283" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H1080" s="213" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1080" s="213"/>
+      <c r="J1080" s="213"/>
+      <c r="K1080" s="213"/>
+      <c r="L1080" s="213"/>
+      <c r="M1080" s="213"/>
+    </row>
+    <row r="1081" spans="2:27">
+      <c r="B1081" s="284"/>
+      <c r="H1081" s="213"/>
+      <c r="I1081" s="213"/>
+      <c r="J1081" s="213"/>
+      <c r="K1081" s="213"/>
+      <c r="L1081" s="213"/>
+      <c r="M1081" s="213"/>
+    </row>
+    <row r="1082" spans="2:27">
+      <c r="B1082" s="283" t="s">
+        <v>3400</v>
+      </c>
+      <c r="H1082" s="213" t="s">
+        <v>3393</v>
+      </c>
+      <c r="I1082" s="213"/>
+      <c r="J1082" s="213"/>
+      <c r="K1082" s="213"/>
+      <c r="L1082" s="213"/>
+      <c r="M1082" s="213"/>
+    </row>
+    <row r="1083" spans="2:27">
+      <c r="B1083" s="284" t="s">
+        <v>3401</v>
+      </c>
+      <c r="H1083" s="213"/>
+      <c r="I1083" s="213"/>
+      <c r="J1083" s="213"/>
+      <c r="K1083" s="213"/>
+      <c r="L1083" s="213"/>
+      <c r="M1083" s="213"/>
+    </row>
+    <row r="1084" spans="2:27">
+      <c r="B1084" s="284" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1084" s="213" t="s">
+        <v>3394</v>
+      </c>
+      <c r="I1084" s="213"/>
+      <c r="J1084" s="213"/>
+      <c r="K1084" s="213"/>
+      <c r="L1084" s="213"/>
+      <c r="M1084" s="213"/>
+    </row>
+    <row r="1085" spans="2:27">
+      <c r="B1085" s="284"/>
+      <c r="H1085" s="213"/>
+      <c r="I1085" s="213"/>
+      <c r="J1085" s="213"/>
+      <c r="K1085" s="213"/>
+      <c r="L1085" s="213"/>
+      <c r="M1085" s="213"/>
+    </row>
+    <row r="1086" spans="2:27">
+      <c r="B1086" s="283" t="s">
+        <v>3402</v>
+      </c>
+      <c r="H1086" s="213" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I1086" s="213"/>
+      <c r="J1086" s="213"/>
+      <c r="K1086" s="213"/>
+      <c r="L1086" s="213"/>
+      <c r="M1086" s="213"/>
+    </row>
+    <row r="1087" spans="2:27">
+      <c r="B1087" s="284" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:27">
+      <c r="B1088" s="284" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3">
+      <c r="B1089" s="36"/>
+    </row>
+    <row r="1090" spans="1:3">
+      <c r="B1090" s="36"/>
+    </row>
+    <row r="1091" spans="1:3" s="222" customFormat="1" ht="17.25">
+      <c r="A1091" s="222" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1091" s="281"/>
+    </row>
+    <row r="1092" spans="1:3">
+      <c r="B1092" s="36"/>
+    </row>
+    <row r="1093" spans="1:3" ht="17.25">
+      <c r="B1093" s="281"/>
+    </row>
+    <row r="1094" spans="1:3">
+      <c r="B1094" s="36"/>
+      <c r="C1094" s="279" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" ht="17.25">
+      <c r="B1095" s="281"/>
+      <c r="C1095" s="279" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c r="B1096" s="36"/>
+      <c r="C1096" s="280" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" ht="17.25">
+      <c r="B1097" s="281"/>
+      <c r="C1097" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
+      <c r="B1098" s="36"/>
+      <c r="C1098" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" ht="17.25">
+      <c r="B1099" s="281"/>
+      <c r="C1099" s="280"/>
+    </row>
+    <row r="1100" spans="1:3">
+      <c r="B1100" s="36"/>
+      <c r="C1100" s="279" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" ht="17.25">
+      <c r="B1101" s="281"/>
+      <c r="C1101" s="279" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
+      <c r="B1102" s="36"/>
+      <c r="C1102" s="280" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" ht="17.25">
+      <c r="B1103" s="281"/>
+      <c r="C1103" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
+      <c r="B1104" s="36"/>
+      <c r="C1104" s="280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:15" ht="17.25">
+      <c r="B1105" s="281"/>
+      <c r="C1105" s="280"/>
+    </row>
+    <row r="1106" spans="2:15">
+      <c r="B1106" s="36"/>
+      <c r="C1106" s="279" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:15" ht="17.25">
+      <c r="B1107" s="281"/>
+      <c r="C1107" s="279" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:15">
+      <c r="C1108" s="280" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:15">
+      <c r="C1109" s="280" t="s">
+        <v>3416</v>
+      </c>
+      <c r="I1109" s="120" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:15">
+      <c r="C1110" s="280" t="s">
+        <v>3417</v>
+      </c>
+      <c r="I1110" s="120" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:15">
+      <c r="C1111" s="280" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1111" s="120" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:15">
+      <c r="I1115" s="120" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:15">
+      <c r="J1117" s="120" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:15">
+      <c r="J1118" s="120" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O1118" s="120" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" s="222" customFormat="1">
+      <c r="A1125" s="222">
+        <v>55</v>
+      </c>
+      <c r="B1125" s="222" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4">
+      <c r="D1128" s="58" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4">
+      <c r="D1129" s="79"/>
+    </row>
+    <row r="1130" spans="1:4">
+      <c r="D1130" s="58" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4">
+      <c r="D1131" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4">
+      <c r="D1134" s="58" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4">
+      <c r="D1135" s="58" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4">
+      <c r="D1136" s="58" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:10">
+      <c r="D1137" s="58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:10">
+      <c r="D1138" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:10">
+      <c r="D1141" s="58" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:10">
+      <c r="D1142" s="58" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:10">
+      <c r="D1143" s="58" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:10">
+      <c r="D1144" s="58" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J1144" s="227" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:10">
+      <c r="D1145" s="58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:10">
+      <c r="D1146" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:10">
+      <c r="A1148" s="222">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:10">
+      <c r="C1150" s="120" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:10">
+      <c r="C1152" s="120" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1154" spans="3:3">
+      <c r="C1154" s="120" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1156" spans="3:3">
+      <c r="C1156" s="120" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1158" spans="3:3">
+      <c r="C1158" s="120" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1160" spans="3:3">
+      <c r="C1160" s="120" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1162" spans="3:3">
+      <c r="C1162" s="120" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1164" spans="3:3">
+      <c r="C1164" s="120" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1166" spans="3:3">
+      <c r="C1166" s="120" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1168" spans="3:3">
+      <c r="C1168" s="120" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1172" spans="3:3">
+      <c r="C1172" s="120" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1174" spans="3:3">
+      <c r="C1174" s="120" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1176" spans="3:3">
+      <c r="C1176" s="120" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1178" spans="3:3">
+      <c r="C1178" s="120" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1180" spans="3:3">
+      <c r="C1180" s="120" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1182" spans="3:3">
+      <c r="C1182" s="120" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1184" spans="3:3">
+      <c r="C1184" s="120" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3">
+      <c r="C1186" s="120" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3">
+      <c r="A1189" s="120" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3">
+      <c r="B1192" s="55" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3">
+      <c r="B1193"/>
+    </row>
+    <row r="1194" spans="1:3">
+      <c r="B1194" s="55" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3">
+      <c r="B1195"/>
+    </row>
+    <row r="1196" spans="1:3">
+      <c r="B1196" s="55" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3">
+      <c r="B1197"/>
+    </row>
+    <row r="1198" spans="1:3">
+      <c r="B1198" s="55" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="B1199"/>
+    </row>
+    <row r="1200" spans="1:3">
+      <c r="B1200" s="55" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="B1201"/>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="B1202"/>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="B1203" s="55" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="B1204"/>
+    </row>
+    <row r="1205" spans="1:2">
+      <c r="B1205" s="55" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="B1206"/>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="B1207" s="55" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="B1208"/>
+    </row>
+    <row r="1209" spans="1:2">
+      <c r="B1209" s="55" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="B1210"/>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="B1211" s="55" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="A1214" s="120" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1217" spans="3:3">
+      <c r="C1217" s="120" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1218" spans="3:3">
+      <c r="C1218" s="120" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1219" spans="3:3">
+      <c r="C1219" s="120" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1220" spans="3:3">
+      <c r="C1220" s="120" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1221" spans="3:3">
+      <c r="C1221" s="120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1222" spans="3:3">
+      <c r="C1222" s="120" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="1223" spans="3:3">
+      <c r="C1223" s="120" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1224" spans="3:3">
+      <c r="C1224" s="120" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1225" spans="3:3">
+      <c r="C1225" s="120" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1226" spans="3:3">
+      <c r="C1226" s="120" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1227" spans="3:3">
+      <c r="C1227" s="120" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1228" spans="3:3">
+      <c r="C1228" s="120" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1229" spans="3:3">
+      <c r="C1229" s="120" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1230" spans="3:3">
+      <c r="C1230" s="120" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1231" spans="3:3">
+      <c r="C1231" s="120" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1232" spans="3:3">
+      <c r="C1232" s="120" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1233" spans="3:3">
+      <c r="C1233" s="120" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1234" spans="3:3">
+      <c r="C1234" s="120" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="1235" spans="3:3">
+      <c r="C1235" s="120" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1236" spans="3:3">
+      <c r="C1236" s="120" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1237" spans="3:3">
+      <c r="C1237" s="120" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1238" spans="3:3">
+      <c r="C1238" s="120" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -25200,37 +27876,37 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="280" t="s">
+      <c r="B2" s="279" t="s">
         <v>3376</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="280" t="s">
         <v>3377</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="281" t="s">
+      <c r="B4" s="280" t="s">
         <v>3378</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="281" t="s">
+      <c r="B5" s="280" t="s">
         <v>3379</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="280" t="s">
         <v>3380</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="280" t="s">
         <v>3381</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="280" t="s">
         <v>3382</v>
       </c>
     </row>
@@ -25243,8 +27919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T540"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M184" sqref="M184"/>
+    <sheetView topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K189" sqref="K189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -29382,8 +32058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D435" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V451" sqref="V451"/>
+    <sheetView topLeftCell="D435" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I457" sqref="I457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52516,10 +55192,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K864"/>
   <sheetViews>
-    <sheetView topLeftCell="A853" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A808" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="J879" sqref="J879"/>
+      <selection pane="topRight" activeCell="A867" sqref="A867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="3485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="3488">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -13397,6 +13397,15 @@
   </si>
   <si>
     <t>317/2513</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>402/2513</t>
+  </si>
+  <si>
+    <t>Import question</t>
   </si>
 </sst>
 </file>
@@ -15248,11 +15257,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19728,16 +19737,16 @@
       <c r="C562" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D562" s="286" t="s">
+      <c r="D562" s="287" t="s">
         <v>219</v>
       </c>
-      <c r="E562" s="286"/>
-      <c r="F562" s="286"/>
-      <c r="G562" s="286"/>
-      <c r="H562" s="286"/>
-      <c r="I562" s="286"/>
-      <c r="J562" s="286"/>
-      <c r="K562" s="286"/>
+      <c r="E562" s="287"/>
+      <c r="F562" s="287"/>
+      <c r="G562" s="287"/>
+      <c r="H562" s="287"/>
+      <c r="I562" s="287"/>
+      <c r="J562" s="287"/>
+      <c r="K562" s="287"/>
       <c r="L562" s="3" t="s">
         <v>89</v>
       </c>
@@ -19804,16 +19813,16 @@
       <c r="C568" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D568" s="286" t="s">
+      <c r="D568" s="287" t="s">
         <v>232</v>
       </c>
-      <c r="E568" s="286"/>
-      <c r="F568" s="286"/>
-      <c r="G568" s="286"/>
-      <c r="H568" s="286"/>
-      <c r="I568" s="286"/>
-      <c r="J568" s="286"/>
-      <c r="K568" s="286"/>
+      <c r="E568" s="287"/>
+      <c r="F568" s="287"/>
+      <c r="G568" s="287"/>
+      <c r="H568" s="287"/>
+      <c r="I568" s="287"/>
+      <c r="J568" s="287"/>
+      <c r="K568" s="287"/>
       <c r="L568" s="3" t="s">
         <v>41</v>
       </c>
@@ -21297,16 +21306,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22073,7 +22081,7 @@
       <c r="B92" s="67">
         <v>48</v>
       </c>
-      <c r="C92" s="287"/>
+      <c r="C92" s="286"/>
       <c r="D92" s="67"/>
     </row>
     <row r="93" spans="2:4">
@@ -22256,7 +22264,7 @@
       </c>
       <c r="D112" s="67"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:6">
       <c r="B113" s="67">
         <v>69</v>
       </c>
@@ -22265,7 +22273,7 @@
       </c>
       <c r="D113" s="67"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:6">
       <c r="B114" s="67">
         <v>70</v>
       </c>
@@ -22274,7 +22282,7 @@
       </c>
       <c r="D114" s="67"/>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:6">
       <c r="B115" s="67">
         <v>71</v>
       </c>
@@ -22283,7 +22291,7 @@
       </c>
       <c r="D115" s="67"/>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:6">
       <c r="B116" s="67">
         <v>72</v>
       </c>
@@ -22292,7 +22300,7 @@
       </c>
       <c r="D116" s="67"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:6">
       <c r="B117" s="67">
         <v>73</v>
       </c>
@@ -22301,7 +22309,7 @@
       </c>
       <c r="D117" s="67"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:6">
       <c r="B118" s="67">
         <v>74</v>
       </c>
@@ -22310,7 +22318,7 @@
       </c>
       <c r="D118" s="67"/>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:6">
       <c r="B119" s="67">
         <v>75</v>
       </c>
@@ -22319,7 +22327,7 @@
       </c>
       <c r="D119" s="67"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:6">
       <c r="B120" s="67">
         <v>76</v>
       </c>
@@ -22327,12 +22335,736 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:6">
       <c r="B121" s="67">
         <v>77</v>
       </c>
       <c r="C121" s="67" t="s">
         <v>1357</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="57" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="C125" s="39" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D125" s="39"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="71" t="s">
+        <v>636</v>
+      </c>
+      <c r="C126" s="71" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D126" s="71" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="67">
+        <v>1</v>
+      </c>
+      <c r="C127" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" s="67"/>
+      <c r="F127" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="67">
+        <v>2</v>
+      </c>
+      <c r="C128" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" s="67"/>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="67">
+        <v>3</v>
+      </c>
+      <c r="C129" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D129" s="67"/>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="67">
+        <v>4</v>
+      </c>
+      <c r="C130" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D130" s="67"/>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="67">
+        <v>5</v>
+      </c>
+      <c r="C131" s="67" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D131" s="194" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="67">
+        <v>6</v>
+      </c>
+      <c r="C132" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" s="67"/>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="67">
+        <v>7</v>
+      </c>
+      <c r="C133" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D133" s="67"/>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="67">
+        <v>8</v>
+      </c>
+      <c r="C134" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" s="67"/>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="67">
+        <v>9</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D135" s="67"/>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="67">
+        <v>10</v>
+      </c>
+      <c r="C136" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="67"/>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="67">
+        <v>11</v>
+      </c>
+      <c r="C137" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="67"/>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="67">
+        <v>12</v>
+      </c>
+      <c r="C138" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="67"/>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="67">
+        <v>13</v>
+      </c>
+      <c r="C139" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D139" s="67"/>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="67">
+        <v>14</v>
+      </c>
+      <c r="C140" s="67" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D140" s="67"/>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="67">
+        <v>15</v>
+      </c>
+      <c r="C141" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D141" s="67"/>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="67">
+        <v>16</v>
+      </c>
+      <c r="C142" s="67" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D142" s="67"/>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="67">
+        <v>17</v>
+      </c>
+      <c r="C143" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="67"/>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="67">
+        <v>18</v>
+      </c>
+      <c r="C144" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" s="67"/>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="67">
+        <v>19</v>
+      </c>
+      <c r="C145" s="277" t="s">
+        <v>245</v>
+      </c>
+      <c r="D145" s="67"/>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="67">
+        <v>20</v>
+      </c>
+      <c r="C146" s="67" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D146" s="67"/>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="67">
+        <v>21</v>
+      </c>
+      <c r="C147" s="67" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D147" s="67"/>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="67">
+        <v>22</v>
+      </c>
+      <c r="C148" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="67"/>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="67">
+        <v>23</v>
+      </c>
+      <c r="C149" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149" s="67"/>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="67">
+        <v>24</v>
+      </c>
+      <c r="C150" s="67" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D150" s="67"/>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="67">
+        <v>25</v>
+      </c>
+      <c r="C151" s="277" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D151" s="67"/>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="67">
+        <v>26</v>
+      </c>
+      <c r="C152" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D152" s="67"/>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="67">
+        <v>27</v>
+      </c>
+      <c r="C153" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D153" s="67"/>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="67">
+        <v>28</v>
+      </c>
+      <c r="C154" s="277" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D154" s="67"/>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="67">
+        <v>29</v>
+      </c>
+      <c r="C155" s="67" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D155" s="67"/>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="67">
+        <v>30</v>
+      </c>
+      <c r="C156" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D156" s="67"/>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="67">
+        <v>31</v>
+      </c>
+      <c r="C157" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" s="67"/>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="67">
+        <v>32</v>
+      </c>
+      <c r="C158" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D158" s="67"/>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="67">
+        <v>33</v>
+      </c>
+      <c r="C159" s="277" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D159" s="67"/>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="67">
+        <v>34</v>
+      </c>
+      <c r="C160" s="67" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D160" s="67"/>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="67">
+        <v>35</v>
+      </c>
+      <c r="C161" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" s="67"/>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="67">
+        <v>36</v>
+      </c>
+      <c r="C162" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D162" s="67"/>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="67">
+        <v>37</v>
+      </c>
+      <c r="C163" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D163" s="67"/>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="67">
+        <v>38</v>
+      </c>
+      <c r="C164" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D164" s="67"/>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="67">
+        <v>39</v>
+      </c>
+      <c r="C165" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D165" s="67"/>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="67">
+        <v>40</v>
+      </c>
+      <c r="C166" s="67" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D166" s="67"/>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="67">
+        <v>41</v>
+      </c>
+      <c r="C167" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="D167" s="67"/>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" s="67">
+        <v>42</v>
+      </c>
+      <c r="C168" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D168" s="67"/>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="67">
+        <v>43</v>
+      </c>
+      <c r="C169" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D169" s="67"/>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" s="67">
+        <v>44</v>
+      </c>
+      <c r="C170" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D170" s="67"/>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="67">
+        <v>45</v>
+      </c>
+      <c r="C171" s="67" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D171" s="67"/>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="67">
+        <v>46</v>
+      </c>
+      <c r="C172" s="67" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D172" s="67"/>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="67">
+        <v>47</v>
+      </c>
+      <c r="C173" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D173" s="67"/>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="67">
+        <v>48</v>
+      </c>
+      <c r="C174" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="67"/>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="67">
+        <v>49</v>
+      </c>
+      <c r="C175" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175" s="67"/>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="67">
+        <v>50</v>
+      </c>
+      <c r="C176" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D176" s="67"/>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="67">
+        <v>51</v>
+      </c>
+      <c r="C177" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D177" s="67"/>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="67">
+        <v>52</v>
+      </c>
+      <c r="C178" s="277" t="s">
+        <v>245</v>
+      </c>
+      <c r="D178" s="67"/>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="67">
+        <v>53</v>
+      </c>
+      <c r="C179" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D179" s="67"/>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="67">
+        <v>54</v>
+      </c>
+      <c r="C180" s="67" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D180" s="67"/>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="67">
+        <v>55</v>
+      </c>
+      <c r="C181" s="67" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D181" s="67"/>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="67">
+        <v>56</v>
+      </c>
+      <c r="C182" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D182" s="67"/>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="67">
+        <v>57</v>
+      </c>
+      <c r="C183" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D183" s="67"/>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="67">
+        <v>58</v>
+      </c>
+      <c r="C184" s="277" t="s">
+        <v>210</v>
+      </c>
+      <c r="D184" s="67"/>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="67">
+        <v>59</v>
+      </c>
+      <c r="C185" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D185" s="67"/>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="67">
+        <v>60</v>
+      </c>
+      <c r="C186" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D186" s="67"/>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="67">
+        <v>61</v>
+      </c>
+      <c r="C187" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D187" s="67"/>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" s="67">
+        <v>62</v>
+      </c>
+      <c r="C188" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188" s="67"/>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" s="67">
+        <v>63</v>
+      </c>
+      <c r="C189" s="277" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D189" s="67"/>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" s="67">
+        <v>64</v>
+      </c>
+      <c r="C190" s="277" t="s">
+        <v>326</v>
+      </c>
+      <c r="D190" s="67"/>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" s="67">
+        <v>65</v>
+      </c>
+      <c r="C191" s="67" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D191" s="67"/>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" s="67">
+        <v>66</v>
+      </c>
+      <c r="C192" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D192" s="67"/>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="67">
+        <v>67</v>
+      </c>
+      <c r="C193" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D193" s="67"/>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="67">
+        <v>68</v>
+      </c>
+      <c r="C194" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D194" s="67"/>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="67">
+        <v>69</v>
+      </c>
+      <c r="C195" s="67" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D195" s="67"/>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="67">
+        <v>70</v>
+      </c>
+      <c r="C196" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D196" s="67"/>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="67">
+        <v>71</v>
+      </c>
+      <c r="C197" s="277" t="s">
+        <v>326</v>
+      </c>
+      <c r="D197" s="67"/>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="67">
+        <v>72</v>
+      </c>
+      <c r="C198" s="277" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" s="67"/>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="67">
+        <v>73</v>
+      </c>
+      <c r="C199" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199" s="67"/>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="67">
+        <v>74</v>
+      </c>
+      <c r="C200" s="67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D200" s="67"/>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="67">
+        <v>75</v>
+      </c>
+      <c r="C201" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201" s="67"/>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="67">
+        <v>76</v>
+      </c>
+      <c r="C202" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="67">
+        <v>77</v>
+      </c>
+      <c r="C203" s="67" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -32058,8 +32790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1026"/>
   <sheetViews>
-    <sheetView topLeftCell="D435" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I457" sqref="I457"/>
+    <sheetView topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8701" uniqueCount="3686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8712" uniqueCount="3686">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -17575,11 +17575,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22055,16 +22055,16 @@
       <c r="C562" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D562" s="306" t="s">
+      <c r="D562" s="307" t="s">
         <v>219</v>
       </c>
-      <c r="E562" s="306"/>
-      <c r="F562" s="306"/>
-      <c r="G562" s="306"/>
-      <c r="H562" s="306"/>
-      <c r="I562" s="306"/>
-      <c r="J562" s="306"/>
-      <c r="K562" s="306"/>
+      <c r="E562" s="307"/>
+      <c r="F562" s="307"/>
+      <c r="G562" s="307"/>
+      <c r="H562" s="307"/>
+      <c r="I562" s="307"/>
+      <c r="J562" s="307"/>
+      <c r="K562" s="307"/>
       <c r="L562" s="3" t="s">
         <v>89</v>
       </c>
@@ -22131,16 +22131,16 @@
       <c r="C568" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D568" s="306" t="s">
+      <c r="D568" s="307" t="s">
         <v>232</v>
       </c>
-      <c r="E568" s="306"/>
-      <c r="F568" s="306"/>
-      <c r="G568" s="306"/>
-      <c r="H568" s="306"/>
-      <c r="I568" s="306"/>
-      <c r="J568" s="306"/>
-      <c r="K568" s="306"/>
+      <c r="E568" s="307"/>
+      <c r="F568" s="307"/>
+      <c r="G568" s="307"/>
+      <c r="H568" s="307"/>
+      <c r="I568" s="307"/>
+      <c r="J568" s="307"/>
+      <c r="K568" s="307"/>
       <c r="L568" s="3" t="s">
         <v>41</v>
       </c>
@@ -23626,8 +23626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E402" sqref="E402"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D408" sqref="D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27458,7 +27458,7 @@
       <c r="D360" s="70" t="s">
         <v>623</v>
       </c>
-      <c r="G360" s="307" t="s">
+      <c r="G360" s="306" t="s">
         <v>3659</v>
       </c>
       <c r="H360" s="43"/>
@@ -27479,7 +27479,7 @@
       <c r="D361" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="G361" s="307" t="s">
+      <c r="G361" s="306" t="s">
         <v>3660</v>
       </c>
       <c r="H361" s="43"/>
@@ -27500,7 +27500,7 @@
       <c r="D362" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="G362" s="307" t="s">
+      <c r="G362" s="306" t="s">
         <v>605</v>
       </c>
       <c r="H362" s="43"/>
@@ -27519,7 +27519,7 @@
       <c r="D363" s="288" t="s">
         <v>210</v>
       </c>
-      <c r="G363" s="307" t="s">
+      <c r="G363" s="306" t="s">
         <v>37</v>
       </c>
       <c r="H363" s="43"/>
@@ -27552,7 +27552,7 @@
       <c r="F365" t="s">
         <v>3683</v>
       </c>
-      <c r="G365" s="307" t="s">
+      <c r="G365" s="306" t="s">
         <v>3684</v>
       </c>
     </row>
@@ -27895,77 +27895,99 @@
       <c r="B404" s="67">
         <v>26</v>
       </c>
-      <c r="C404" s="67"/>
+      <c r="C404" s="292" t="s">
+        <v>209</v>
+      </c>
       <c r="D404" s="67"/>
     </row>
     <row r="405" spans="2:4">
       <c r="B405" s="67">
         <v>27</v>
       </c>
-      <c r="C405" s="67"/>
+      <c r="C405" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="D405" s="67"/>
     </row>
     <row r="406" spans="2:4">
       <c r="B406" s="67">
         <v>28</v>
       </c>
-      <c r="C406" s="67"/>
+      <c r="C406" s="67" t="s">
+        <v>673</v>
+      </c>
       <c r="D406" s="67"/>
     </row>
     <row r="407" spans="2:4">
       <c r="B407" s="67">
         <v>29</v>
       </c>
-      <c r="C407" s="67"/>
+      <c r="C407" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="D407" s="67"/>
     </row>
     <row r="408" spans="2:4">
       <c r="B408" s="67">
         <v>30</v>
       </c>
-      <c r="C408" s="67"/>
+      <c r="C408" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="D408" s="67"/>
     </row>
     <row r="409" spans="2:4">
       <c r="B409" s="67">
         <v>31</v>
       </c>
-      <c r="C409" s="67"/>
+      <c r="C409" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D409" s="67"/>
     </row>
     <row r="410" spans="2:4">
       <c r="B410" s="67">
         <v>32</v>
       </c>
-      <c r="C410" s="67"/>
+      <c r="C410" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D410" s="67"/>
     </row>
     <row r="411" spans="2:4">
       <c r="B411" s="67">
         <v>33</v>
       </c>
-      <c r="C411" s="67"/>
+      <c r="C411" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="D411" s="67"/>
     </row>
     <row r="412" spans="2:4">
       <c r="B412" s="67">
         <v>34</v>
       </c>
-      <c r="C412" s="67"/>
+      <c r="C412" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="D412" s="67"/>
     </row>
     <row r="413" spans="2:4">
       <c r="B413" s="67">
         <v>35</v>
       </c>
-      <c r="C413" s="67"/>
+      <c r="C413" s="292" t="s">
+        <v>203</v>
+      </c>
       <c r="D413" s="67"/>
     </row>
     <row r="414" spans="2:4">
       <c r="B414" s="67">
         <v>36</v>
       </c>
-      <c r="C414" s="67"/>
+      <c r="C414" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="D414" s="67"/>
     </row>
     <row r="415" spans="2:4">

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8712" uniqueCount="3686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8751" uniqueCount="3689">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -15595,6 +15595,15 @@
   </si>
   <si>
     <t>mảng primitive bản chất là kiểu Object. Do vậy khi truyền arr vào hàm , thì các thao tác thay đổi phần tử cũng sẽ làm thay đổi mảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD </t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
@@ -16908,7 +16917,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17580,6 +17589,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23626,8 +23638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D408" sqref="D408"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27994,85 +28006,108 @@
       <c r="B415" s="67">
         <v>37</v>
       </c>
-      <c r="C415" s="67"/>
+      <c r="C415" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D415" s="67"/>
     </row>
     <row r="416" spans="2:4">
       <c r="B416" s="67">
         <v>38</v>
       </c>
-      <c r="C416" s="67"/>
+      <c r="C416" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D416" s="67"/>
     </row>
     <row r="417" spans="2:4">
       <c r="B417" s="67">
         <v>39</v>
       </c>
-      <c r="C417" s="67"/>
+      <c r="C417" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D417" s="67"/>
     </row>
     <row r="418" spans="2:4">
       <c r="B418" s="67">
         <v>40</v>
       </c>
-      <c r="C418" s="67"/>
       <c r="D418" s="67"/>
     </row>
     <row r="419" spans="2:4">
       <c r="B419" s="67">
         <v>41</v>
       </c>
-      <c r="C419" s="67"/>
+      <c r="C419" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="D419" s="67"/>
     </row>
     <row r="420" spans="2:4">
       <c r="B420" s="67">
         <v>42</v>
       </c>
-      <c r="C420" s="67"/>
+      <c r="C420" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="D420" s="67"/>
     </row>
     <row r="421" spans="2:4">
-      <c r="B421" s="67">
+      <c r="B421" s="286">
         <v>43</v>
       </c>
-      <c r="C421" s="67"/>
+      <c r="C421" s="292" t="s">
+        <v>673</v>
+      </c>
       <c r="D421" s="67"/>
     </row>
     <row r="422" spans="2:4">
       <c r="B422" s="67">
         <v>44</v>
       </c>
-      <c r="C422" s="67"/>
+      <c r="C422" s="67" t="s">
+        <v>1351</v>
+      </c>
       <c r="D422" s="67"/>
     </row>
     <row r="423" spans="2:4">
       <c r="B423" s="67">
         <v>45</v>
       </c>
-      <c r="C423" s="67"/>
+      <c r="C423" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="D423" s="67"/>
     </row>
     <row r="424" spans="2:4">
       <c r="B424" s="67">
         <v>46</v>
       </c>
-      <c r="C424" s="67"/>
+      <c r="C424" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="D424" s="67"/>
     </row>
     <row r="425" spans="2:4">
       <c r="B425" s="67">
         <v>47</v>
       </c>
-      <c r="C425" s="67"/>
+      <c r="C425" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="D425" s="67"/>
     </row>
     <row r="426" spans="2:4">
       <c r="B426" s="67">
         <v>48</v>
       </c>
-      <c r="C426" s="67"/>
-      <c r="D426" s="67"/>
+      <c r="C426" s="67" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D426" s="67" t="s">
+        <v>3687</v>
+      </c>
     </row>
     <row r="427" spans="2:4">
       <c r="B427" s="67">
@@ -28085,21 +28120,27 @@
       <c r="B428" s="67">
         <v>50</v>
       </c>
-      <c r="C428" s="67"/>
+      <c r="C428" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D428" s="67"/>
     </row>
     <row r="429" spans="2:4">
       <c r="B429" s="67">
         <v>51</v>
       </c>
-      <c r="C429" s="67"/>
+      <c r="C429" s="67" t="s">
+        <v>209</v>
+      </c>
       <c r="D429" s="67"/>
     </row>
     <row r="430" spans="2:4">
       <c r="B430" s="67">
         <v>52</v>
       </c>
-      <c r="C430" s="67"/>
+      <c r="C430" s="308" t="s">
+        <v>204</v>
+      </c>
       <c r="D430" s="67"/>
     </row>
     <row r="431" spans="2:4">
@@ -28113,168 +28154,216 @@
       <c r="B432" s="67">
         <v>54</v>
       </c>
-      <c r="C432" s="67"/>
+      <c r="C432" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="D432" s="67"/>
     </row>
     <row r="433" spans="2:4">
       <c r="B433" s="67">
         <v>55</v>
       </c>
-      <c r="C433" s="67"/>
+      <c r="C433" s="292" t="s">
+        <v>210</v>
+      </c>
       <c r="D433" s="67"/>
     </row>
     <row r="434" spans="2:4">
       <c r="B434" s="67">
         <v>56</v>
       </c>
-      <c r="C434" s="67"/>
+      <c r="C434" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="D434" s="67"/>
     </row>
     <row r="435" spans="2:4">
       <c r="B435" s="67">
         <v>57</v>
       </c>
-      <c r="C435" s="67"/>
+      <c r="C435" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="D435" s="67"/>
     </row>
     <row r="436" spans="2:4">
       <c r="B436" s="67">
         <v>58</v>
       </c>
-      <c r="C436" s="67"/>
+      <c r="C436" s="67" t="s">
+        <v>1352</v>
+      </c>
       <c r="D436" s="67"/>
     </row>
     <row r="437" spans="2:4">
       <c r="B437" s="67">
         <v>59</v>
       </c>
-      <c r="C437" s="67"/>
+      <c r="C437" s="67" t="s">
+        <v>673</v>
+      </c>
       <c r="D437" s="67"/>
     </row>
     <row r="438" spans="2:4">
       <c r="B438" s="67">
         <v>60</v>
       </c>
-      <c r="C438" s="67"/>
+      <c r="C438" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="D438" s="67"/>
     </row>
     <row r="439" spans="2:4">
       <c r="B439" s="67">
         <v>61</v>
       </c>
-      <c r="C439" s="67"/>
+      <c r="C439" s="67" t="s">
+        <v>1360</v>
+      </c>
       <c r="D439" s="67"/>
     </row>
     <row r="440" spans="2:4">
       <c r="B440" s="67">
         <v>62</v>
       </c>
-      <c r="C440" s="67"/>
+      <c r="C440" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="D440" s="67"/>
     </row>
     <row r="441" spans="2:4">
       <c r="B441" s="67">
         <v>63</v>
       </c>
-      <c r="C441" s="67"/>
+      <c r="C441" s="67" t="s">
+        <v>623</v>
+      </c>
       <c r="D441" s="67"/>
     </row>
     <row r="442" spans="2:4">
       <c r="B442" s="67">
         <v>64</v>
       </c>
-      <c r="C442" s="67"/>
+      <c r="C442" s="67" t="s">
+        <v>1358</v>
+      </c>
       <c r="D442" s="67"/>
     </row>
     <row r="443" spans="2:4">
       <c r="B443" s="67">
         <v>65</v>
       </c>
-      <c r="C443" s="67"/>
+      <c r="C443" s="67" t="s">
+        <v>1745</v>
+      </c>
       <c r="D443" s="67"/>
     </row>
     <row r="444" spans="2:4">
       <c r="B444" s="67">
         <v>66</v>
       </c>
-      <c r="C444" s="67"/>
+      <c r="C444" s="292" t="s">
+        <v>208</v>
+      </c>
       <c r="D444" s="67"/>
     </row>
     <row r="445" spans="2:4">
       <c r="B445" s="67">
         <v>67</v>
       </c>
-      <c r="C445" s="67"/>
+      <c r="C445" s="292" t="s">
+        <v>205</v>
+      </c>
       <c r="D445" s="67"/>
     </row>
     <row r="446" spans="2:4">
       <c r="B446" s="67">
         <v>68</v>
       </c>
-      <c r="C446" s="67"/>
+      <c r="C446" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="D446" s="67"/>
     </row>
     <row r="447" spans="2:4">
       <c r="B447" s="67">
         <v>69</v>
       </c>
-      <c r="C447" s="67"/>
+      <c r="C447" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="D447" s="67"/>
     </row>
     <row r="448" spans="2:4">
       <c r="B448" s="67">
         <v>70</v>
       </c>
-      <c r="C448" s="67"/>
+      <c r="C448" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="D448" s="67"/>
     </row>
     <row r="449" spans="2:4">
       <c r="B449" s="67">
         <v>71</v>
       </c>
-      <c r="C449" s="67"/>
+      <c r="C449" s="67" t="s">
+        <v>1358</v>
+      </c>
       <c r="D449" s="67"/>
     </row>
     <row r="450" spans="2:4">
       <c r="B450" s="67">
         <v>72</v>
       </c>
-      <c r="C450" s="67"/>
+      <c r="C450" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="D450" s="67"/>
     </row>
     <row r="451" spans="2:4">
       <c r="B451" s="67">
         <v>73</v>
       </c>
-      <c r="C451" s="67"/>
+      <c r="C451" s="67" t="s">
+        <v>1358</v>
+      </c>
       <c r="D451" s="67"/>
     </row>
     <row r="452" spans="2:4">
       <c r="B452" s="67">
         <v>74</v>
       </c>
-      <c r="C452" s="67"/>
+      <c r="C452" s="67" t="s">
+        <v>1738</v>
+      </c>
       <c r="D452" s="67"/>
     </row>
     <row r="453" spans="2:4">
       <c r="B453" s="67">
         <v>75</v>
       </c>
-      <c r="C453" s="67"/>
+      <c r="C453" s="67" t="s">
+        <v>3688</v>
+      </c>
       <c r="D453" s="67"/>
     </row>
     <row r="454" spans="2:4">
       <c r="B454" s="67">
         <v>76</v>
       </c>
-      <c r="C454" s="67"/>
+      <c r="C454" s="67" t="s">
+        <v>208</v>
+      </c>
       <c r="D454" s="67"/>
     </row>
     <row r="455" spans="2:4">
       <c r="B455" s="67">
         <v>77</v>
       </c>
-      <c r="C455" s="67"/>
+      <c r="C455" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="D455" s="67"/>
     </row>
   </sheetData>
@@ -34764,8 +34853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T540"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K189" sqref="K189"/>
+    <sheetView topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8751" uniqueCount="3689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8869" uniqueCount="3693">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -13439,9 +13439,6 @@
   </si>
   <si>
     <t>890/2513</t>
-  </si>
-  <si>
-    <t>\/2513</t>
   </si>
   <si>
     <t>Result:</t>
@@ -15600,10 +15597,25 @@
     <t xml:space="preserve">AD </t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>968/2513</t>
+  </si>
+  <si>
+    <t>49/77</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Page: </t>
+  </si>
+  <si>
+    <t>1053/2513</t>
+  </si>
+  <si>
+    <t>End Page:</t>
   </si>
 </sst>
 </file>
@@ -16917,7 +16929,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17587,12 +17599,13 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -22067,16 +22080,16 @@
       <c r="C562" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D562" s="307" t="s">
+      <c r="D562" s="308" t="s">
         <v>219</v>
       </c>
-      <c r="E562" s="307"/>
-      <c r="F562" s="307"/>
-      <c r="G562" s="307"/>
-      <c r="H562" s="307"/>
-      <c r="I562" s="307"/>
-      <c r="J562" s="307"/>
-      <c r="K562" s="307"/>
+      <c r="E562" s="308"/>
+      <c r="F562" s="308"/>
+      <c r="G562" s="308"/>
+      <c r="H562" s="308"/>
+      <c r="I562" s="308"/>
+      <c r="J562" s="308"/>
+      <c r="K562" s="308"/>
       <c r="L562" s="3" t="s">
         <v>89</v>
       </c>
@@ -22143,16 +22156,16 @@
       <c r="C568" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D568" s="307" t="s">
+      <c r="D568" s="308" t="s">
         <v>232</v>
       </c>
-      <c r="E568" s="307"/>
-      <c r="F568" s="307"/>
-      <c r="G568" s="307"/>
-      <c r="H568" s="307"/>
-      <c r="I568" s="307"/>
-      <c r="J568" s="307"/>
-      <c r="K568" s="307"/>
+      <c r="E568" s="308"/>
+      <c r="F568" s="308"/>
+      <c r="G568" s="308"/>
+      <c r="H568" s="308"/>
+      <c r="I568" s="308"/>
+      <c r="J568" s="308"/>
+      <c r="K568" s="308"/>
       <c r="L568" s="3" t="s">
         <v>41</v>
       </c>
@@ -23636,10 +23649,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D489" sqref="D489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25563,10 +25576,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" s="67" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C205" s="67" t="s">
         <v>3500</v>
-      </c>
-      <c r="C205" s="67" t="s">
-        <v>3501</v>
       </c>
       <c r="D205" s="296">
         <v>0.77900000000000003</v>
@@ -25593,7 +25606,7 @@
         <v>3481</v>
       </c>
       <c r="D209" s="39" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="210" spans="2:5">
@@ -25629,7 +25642,7 @@
         <v>245</v>
       </c>
       <c r="E212" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="213" spans="2:5">
@@ -25643,7 +25656,7 @@
         <v>210</v>
       </c>
       <c r="E213" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="214" spans="2:5">
@@ -25699,7 +25712,7 @@
         <v>245</v>
       </c>
       <c r="E218" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="219" spans="2:5">
@@ -25735,7 +25748,7 @@
         <v>201</v>
       </c>
       <c r="E221" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="222" spans="2:5">
@@ -25804,7 +25817,7 @@
         <v>1361</v>
       </c>
       <c r="E227" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="228" spans="2:10">
@@ -25862,7 +25875,7 @@
         <v>210</v>
       </c>
       <c r="E232" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="233" spans="2:10">
@@ -25876,7 +25889,7 @@
         <v>673</v>
       </c>
       <c r="J233" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="234" spans="2:10">
@@ -25890,7 +25903,7 @@
         <v>201</v>
       </c>
       <c r="J234" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="235" spans="2:10">
@@ -25904,7 +25917,7 @@
         <v>204</v>
       </c>
       <c r="J235" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="236" spans="2:10">
@@ -25938,7 +25951,7 @@
         <v>204</v>
       </c>
       <c r="E238" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="239" spans="2:10">
@@ -25996,7 +26009,7 @@
         <v>245</v>
       </c>
       <c r="E243" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="244" spans="2:11">
@@ -26010,7 +26023,7 @@
         <v>204</v>
       </c>
       <c r="K244" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="245" spans="2:11">
@@ -26057,7 +26070,7 @@
         <v>1357</v>
       </c>
       <c r="E248" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="249" spans="2:11">
@@ -26071,7 +26084,7 @@
         <v>204</v>
       </c>
       <c r="F249" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="250" spans="2:11">
@@ -26085,7 +26098,7 @@
         <v>201</v>
       </c>
       <c r="F250" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="251" spans="2:11">
@@ -26143,7 +26156,7 @@
         <v>209</v>
       </c>
       <c r="E255" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="256" spans="2:11">
@@ -26157,7 +26170,7 @@
         <v>1361</v>
       </c>
       <c r="G256" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="257" spans="2:17">
@@ -26215,16 +26228,16 @@
         <v>210</v>
       </c>
       <c r="G261" t="s">
+        <v>3590</v>
+      </c>
+      <c r="H261" t="s">
+        <v>3589</v>
+      </c>
+      <c r="P261" t="s">
         <v>3591</v>
       </c>
-      <c r="H261" t="s">
-        <v>3590</v>
-      </c>
-      <c r="P261" t="s">
+      <c r="Q261" t="s">
         <v>3592</v>
-      </c>
-      <c r="Q261" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="262" spans="2:17">
@@ -26238,7 +26251,7 @@
         <v>245</v>
       </c>
       <c r="G262" s="207" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="263" spans="2:17">
@@ -26252,10 +26265,10 @@
         <v>210</v>
       </c>
       <c r="G263" s="207" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="P263" s="207" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="264" spans="2:17">
@@ -26269,10 +26282,10 @@
         <v>2594</v>
       </c>
       <c r="G264" s="82" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="P264" s="82" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="265" spans="2:17">
@@ -26286,10 +26299,10 @@
         <v>210</v>
       </c>
       <c r="G265" s="82" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="P265" s="82" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="266" spans="2:17">
@@ -26303,7 +26316,7 @@
         <v>211</v>
       </c>
       <c r="G266" s="82" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="P266" s="82" t="s">
         <v>37</v>
@@ -26362,13 +26375,13 @@
         <v>673</v>
       </c>
       <c r="G270" s="304" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="H270" s="39"/>
       <c r="I270" s="39"/>
       <c r="J270" s="39"/>
       <c r="L270" s="275" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="M270" s="294"/>
       <c r="N270" s="294"/>
@@ -26386,7 +26399,7 @@
         <v>210</v>
       </c>
       <c r="L271" s="275" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="M271" s="294"/>
       <c r="N271" s="294"/>
@@ -26404,7 +26417,7 @@
         <v>201</v>
       </c>
       <c r="L272" s="275" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="M272" s="294"/>
       <c r="N272" s="294"/>
@@ -26422,7 +26435,7 @@
         <v>210</v>
       </c>
       <c r="E273" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="274" spans="2:18">
@@ -26524,10 +26537,10 @@
         <v>1743</v>
       </c>
       <c r="F282" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="L282" s="39" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="M282" s="39"/>
       <c r="N282" s="39"/>
@@ -26544,7 +26557,7 @@
         <v>245</v>
       </c>
       <c r="F283" s="207" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="284" spans="2:18">
@@ -26558,10 +26571,10 @@
         <v>2699</v>
       </c>
       <c r="F284" s="82" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="M284" s="304" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="N284" s="39"/>
       <c r="O284" s="39"/>
@@ -26583,7 +26596,7 @@
         <v>37</v>
       </c>
       <c r="M285" s="304" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="N285" s="39"/>
       <c r="O285" s="39"/>
@@ -26621,10 +26634,10 @@
         <v>210</v>
       </c>
       <c r="F287" s="230" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="M287" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="289" spans="2:4">
@@ -27036,7 +27049,7 @@
         <v>205</v>
       </c>
       <c r="E328" s="120" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="F328" s="120"/>
       <c r="G328" s="120"/>
@@ -27058,7 +27071,7 @@
         <v>1357</v>
       </c>
       <c r="E329" s="120" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="F329" s="120"/>
       <c r="G329" s="120"/>
@@ -27091,7 +27104,7 @@
         <v>202</v>
       </c>
       <c r="E331" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="332" spans="2:13">
@@ -27105,7 +27118,7 @@
         <v>245</v>
       </c>
       <c r="E332" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="333" spans="2:13">
@@ -27185,7 +27198,7 @@
         <v>201</v>
       </c>
       <c r="E339" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="340" spans="2:5">
@@ -27353,18 +27366,18 @@
         <v>1738</v>
       </c>
       <c r="F354" s="39" t="s">
+        <v>3650</v>
+      </c>
+      <c r="G354" s="39" t="s">
         <v>3651</v>
-      </c>
-      <c r="G354" s="39" t="s">
-        <v>3652</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="39"/>
       <c r="M354" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="N354" s="206" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="355" spans="2:14">
@@ -27378,7 +27391,7 @@
         <v>1351</v>
       </c>
       <c r="N355" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="356" spans="2:14">
@@ -27392,7 +27405,7 @@
         <v>204</v>
       </c>
       <c r="G356" s="58" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="H356" s="43"/>
       <c r="I356" s="43"/>
@@ -27400,7 +27413,7 @@
       <c r="K356" s="43"/>
       <c r="L356" s="43"/>
       <c r="M356" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="357" spans="2:14">
@@ -27411,7 +27424,7 @@
         <v>245</v>
       </c>
       <c r="G357" s="58" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="H357" s="43"/>
       <c r="I357" s="43"/>
@@ -27419,7 +27432,7 @@
       <c r="K357" s="43"/>
       <c r="L357" s="43"/>
       <c r="M357" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="358" spans="2:14">
@@ -27433,7 +27446,7 @@
         <v>245</v>
       </c>
       <c r="G358" s="58" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="H358" s="43"/>
       <c r="I358" s="43"/>
@@ -27452,7 +27465,7 @@
         <v>1361</v>
       </c>
       <c r="G359" s="58" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="H359" s="43"/>
       <c r="I359" s="43"/>
@@ -27471,14 +27484,14 @@
         <v>623</v>
       </c>
       <c r="G360" s="306" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="H360" s="43"/>
       <c r="I360" s="43"/>
       <c r="J360" s="43"/>
       <c r="K360" s="43"/>
       <c r="L360" s="43" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="361" spans="2:14">
@@ -27492,14 +27505,14 @@
         <v>208</v>
       </c>
       <c r="G361" s="306" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="H361" s="43"/>
       <c r="I361" s="43"/>
       <c r="J361" s="43"/>
       <c r="K361" s="43"/>
       <c r="L361" s="43" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="362" spans="2:14">
@@ -27562,10 +27575,10 @@
         <v>1355</v>
       </c>
       <c r="F365" t="s">
+        <v>3682</v>
+      </c>
+      <c r="G365" s="306" t="s">
         <v>3683</v>
-      </c>
-      <c r="G365" s="306" t="s">
-        <v>3684</v>
       </c>
     </row>
     <row r="366" spans="2:14">
@@ -27634,7 +27647,7 @@
         <v>204</v>
       </c>
       <c r="F371" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="373" spans="2:6">
@@ -27664,7 +27677,7 @@
         <v>3481</v>
       </c>
       <c r="D377" s="39" t="s">
-        <v>3499</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="378" spans="2:6">
@@ -27685,7 +27698,9 @@
       <c r="C379" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D379" s="67"/>
+      <c r="D379" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="380" spans="2:6">
       <c r="B380" s="67">
@@ -27694,7 +27709,9 @@
       <c r="C380" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D380" s="67"/>
+      <c r="D380" s="67" t="s">
+        <v>1748</v>
+      </c>
     </row>
     <row r="381" spans="2:6">
       <c r="B381" s="67">
@@ -27703,7 +27720,9 @@
       <c r="C381" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D381" s="67"/>
+      <c r="D381" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="382" spans="2:6">
       <c r="B382" s="67">
@@ -27712,7 +27731,10 @@
       <c r="C382" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D382" s="67"/>
+      <c r="D382" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E382" s="294"/>
     </row>
     <row r="383" spans="2:6">
       <c r="B383" s="67">
@@ -27721,7 +27743,9 @@
       <c r="C383" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D383" s="67"/>
+      <c r="D383" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="384" spans="2:6">
       <c r="B384" s="67">
@@ -27730,7 +27754,9 @@
       <c r="C384" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D384" s="67"/>
+      <c r="D384" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="385" spans="2:4">
       <c r="B385" s="67">
@@ -27739,7 +27765,9 @@
       <c r="C385" s="293" t="s">
         <v>245</v>
       </c>
-      <c r="D385" s="67"/>
+      <c r="D385" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="386" spans="2:4">
       <c r="B386" s="67">
@@ -27748,16 +27776,20 @@
       <c r="C386" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D386" s="67"/>
-    </row>
-    <row r="387" spans="2:4">
+      <c r="D386" s="194" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" ht="15.75" customHeight="1">
       <c r="B387" s="67">
         <v>9</v>
       </c>
       <c r="C387" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D387" s="67"/>
+      <c r="D387" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="388" spans="2:4">
       <c r="B388" s="67">
@@ -27766,7 +27798,9 @@
       <c r="C388" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D388" s="67"/>
+      <c r="D388" s="295" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="389" spans="2:4">
       <c r="B389" s="67">
@@ -27775,7 +27809,9 @@
       <c r="C389" s="67" t="s">
         <v>1823</v>
       </c>
-      <c r="D389" s="67"/>
+      <c r="D389" s="194" t="s">
+        <v>1823</v>
+      </c>
     </row>
     <row r="390" spans="2:4">
       <c r="B390" s="67">
@@ -27784,7 +27820,9 @@
       <c r="C390" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D390" s="67"/>
+      <c r="D390" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="391" spans="2:4">
       <c r="B391" s="67">
@@ -27793,7 +27831,9 @@
       <c r="C391" s="67" t="s">
         <v>1351</v>
       </c>
-      <c r="D391" s="67"/>
+      <c r="D391" s="194" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="392" spans="2:4">
       <c r="B392" s="67">
@@ -27802,7 +27842,9 @@
       <c r="C392" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D392" s="67"/>
+      <c r="D392" s="67" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="393" spans="2:4">
       <c r="B393" s="67">
@@ -27811,7 +27853,9 @@
       <c r="C393" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D393" s="67"/>
+      <c r="D393" s="67" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="394" spans="2:4">
       <c r="B394" s="67">
@@ -27820,7 +27864,9 @@
       <c r="C394" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D394" s="67"/>
+      <c r="D394" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="395" spans="2:4">
       <c r="B395" s="67">
@@ -27829,7 +27875,9 @@
       <c r="C395" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="D395" s="67"/>
+      <c r="D395" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="396" spans="2:4">
       <c r="B396" s="67">
@@ -27838,7 +27886,9 @@
       <c r="C396" s="292" t="s">
         <v>200</v>
       </c>
-      <c r="D396" s="67"/>
+      <c r="D396" s="67" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="397" spans="2:4">
       <c r="B397" s="67">
@@ -27847,7 +27897,9 @@
       <c r="C397" s="292" t="s">
         <v>211</v>
       </c>
-      <c r="D397" s="67"/>
+      <c r="D397" s="194" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="398" spans="2:4">
       <c r="B398" s="67">
@@ -27856,7 +27908,9 @@
       <c r="C398" s="292" t="s">
         <v>204</v>
       </c>
-      <c r="D398" s="67"/>
+      <c r="D398" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="399" spans="2:4">
       <c r="B399" s="67">
@@ -27865,7 +27919,9 @@
       <c r="C399" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D399" s="67"/>
+      <c r="D399" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="400" spans="2:4">
       <c r="B400" s="67">
@@ -27874,290 +27930,359 @@
       <c r="C400" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="D400" s="67"/>
-    </row>
-    <row r="401" spans="2:4">
+      <c r="D400" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6">
       <c r="B401" s="67">
         <v>23</v>
       </c>
       <c r="C401" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="D401" s="67"/>
-    </row>
-    <row r="402" spans="2:4">
+      <c r="D401" s="194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6">
       <c r="B402" s="67">
         <v>24</v>
       </c>
       <c r="C402" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D402" s="67"/>
-    </row>
-    <row r="403" spans="2:4">
+      <c r="D402" s="194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6">
       <c r="B403" s="67">
         <v>25</v>
       </c>
       <c r="C403" s="292" t="s">
         <v>1738</v>
       </c>
-      <c r="D403" s="67"/>
-    </row>
-    <row r="404" spans="2:4">
+      <c r="D403" s="67" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E403" s="294"/>
+    </row>
+    <row r="404" spans="2:6">
       <c r="B404" s="67">
         <v>26</v>
       </c>
       <c r="C404" s="292" t="s">
         <v>209</v>
       </c>
-      <c r="D404" s="67"/>
-    </row>
-    <row r="405" spans="2:4">
+      <c r="D404" s="67" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6">
       <c r="B405" s="67">
         <v>27</v>
       </c>
       <c r="C405" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D405" s="67"/>
-    </row>
-    <row r="406" spans="2:4">
+      <c r="D405" s="194" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6">
       <c r="B406" s="67">
         <v>28</v>
       </c>
       <c r="C406" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="D406" s="67"/>
-    </row>
-    <row r="407" spans="2:4">
+      <c r="D406" s="194" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6">
       <c r="B407" s="67">
         <v>29</v>
       </c>
       <c r="C407" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D407" s="67"/>
-    </row>
-    <row r="408" spans="2:4">
+      <c r="D407" s="194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6">
       <c r="B408" s="67">
         <v>30</v>
       </c>
       <c r="C408" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D408" s="67"/>
-    </row>
-    <row r="409" spans="2:4">
+      <c r="D408" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6">
       <c r="B409" s="67">
         <v>31</v>
       </c>
       <c r="C409" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D409" s="67"/>
-    </row>
-    <row r="410" spans="2:4">
+      <c r="D409" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6">
       <c r="B410" s="67">
         <v>32</v>
       </c>
       <c r="C410" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D410" s="67"/>
-    </row>
-    <row r="411" spans="2:4">
+      <c r="D410" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="F410" s="294"/>
+    </row>
+    <row r="411" spans="2:6">
       <c r="B411" s="67">
         <v>33</v>
       </c>
       <c r="C411" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D411" s="67"/>
-    </row>
-    <row r="412" spans="2:4">
+      <c r="D411" s="194" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6">
       <c r="B412" s="67">
         <v>34</v>
       </c>
       <c r="C412" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D412" s="67"/>
-    </row>
-    <row r="413" spans="2:4">
+      <c r="D412" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6">
       <c r="B413" s="67">
         <v>35</v>
       </c>
       <c r="C413" s="292" t="s">
         <v>203</v>
       </c>
-      <c r="D413" s="67"/>
-    </row>
-    <row r="414" spans="2:4">
+      <c r="D413" s="194" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6">
       <c r="B414" s="67">
         <v>36</v>
       </c>
       <c r="C414" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D414" s="67"/>
-    </row>
-    <row r="415" spans="2:4">
+      <c r="D414" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6">
       <c r="B415" s="67">
         <v>37</v>
       </c>
       <c r="C415" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D415" s="67"/>
-    </row>
-    <row r="416" spans="2:4">
+      <c r="D415" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6">
       <c r="B416" s="67">
         <v>38</v>
       </c>
       <c r="C416" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D416" s="67"/>
-    </row>
-    <row r="417" spans="2:4">
+      <c r="D416" s="194" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6">
       <c r="B417" s="67">
         <v>39</v>
       </c>
       <c r="C417" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D417" s="67"/>
-    </row>
-    <row r="418" spans="2:4">
+      <c r="D417" s="67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6">
       <c r="B418" s="67">
         <v>40</v>
       </c>
-      <c r="D418" s="67"/>
-    </row>
-    <row r="419" spans="2:4">
+      <c r="D418" s="67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6">
       <c r="B419" s="67">
         <v>41</v>
       </c>
       <c r="C419" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D419" s="67"/>
-    </row>
-    <row r="420" spans="2:4">
+      <c r="D419" s="194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="420" spans="2:6">
       <c r="B420" s="67">
         <v>42</v>
       </c>
       <c r="C420" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D420" s="67"/>
-    </row>
-    <row r="421" spans="2:4">
+      <c r="D420" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6">
       <c r="B421" s="286">
         <v>43</v>
       </c>
       <c r="C421" s="292" t="s">
         <v>673</v>
       </c>
-      <c r="D421" s="67"/>
-    </row>
-    <row r="422" spans="2:4">
+      <c r="D421" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="F421" s="14"/>
+    </row>
+    <row r="422" spans="2:6">
       <c r="B422" s="67">
         <v>44</v>
       </c>
       <c r="C422" s="67" t="s">
         <v>1351</v>
       </c>
-      <c r="D422" s="67"/>
-    </row>
-    <row r="423" spans="2:4">
+      <c r="D422" s="194" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="423" spans="2:6">
       <c r="B423" s="67">
         <v>45</v>
       </c>
       <c r="C423" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D423" s="67"/>
-    </row>
-    <row r="424" spans="2:4">
+      <c r="D423" s="194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6">
       <c r="B424" s="67">
         <v>46</v>
       </c>
       <c r="C424" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D424" s="67"/>
-    </row>
-    <row r="425" spans="2:4">
+      <c r="D424" s="194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="425" spans="2:6">
       <c r="B425" s="67">
         <v>47</v>
       </c>
       <c r="C425" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D425" s="67"/>
-    </row>
-    <row r="426" spans="2:4">
+      <c r="D425" s="194" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="426" spans="2:6">
       <c r="B426" s="67">
         <v>48</v>
       </c>
-      <c r="C426" s="67" t="s">
-        <v>3686</v>
-      </c>
-      <c r="D426" s="67" t="s">
-        <v>3687</v>
-      </c>
-    </row>
-    <row r="427" spans="2:4">
+      <c r="C426" s="292" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D426" s="194" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6">
       <c r="B427" s="67">
         <v>49</v>
       </c>
-      <c r="C427" s="67"/>
-      <c r="D427" s="67"/>
-    </row>
-    <row r="428" spans="2:4">
+      <c r="C427" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="D427" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6">
       <c r="B428" s="67">
         <v>50</v>
       </c>
       <c r="C428" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D428" s="67"/>
-    </row>
-    <row r="429" spans="2:4">
+      <c r="D428" s="194" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6">
       <c r="B429" s="67">
         <v>51</v>
       </c>
       <c r="C429" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="D429" s="67"/>
-    </row>
-    <row r="430" spans="2:4">
+      <c r="D429" s="194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6">
       <c r="B430" s="67">
         <v>52</v>
       </c>
-      <c r="C430" s="308" t="s">
+      <c r="C430" s="307" t="s">
         <v>204</v>
       </c>
-      <c r="D430" s="67"/>
-    </row>
-    <row r="431" spans="2:4">
+      <c r="D430" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6">
       <c r="B431" s="67">
         <v>53</v>
       </c>
       <c r="C431" s="67"/>
-      <c r="D431" s="67"/>
-    </row>
-    <row r="432" spans="2:4">
+      <c r="D431" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6">
       <c r="B432" s="67">
         <v>54</v>
       </c>
       <c r="C432" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D432" s="67"/>
+      <c r="D432" s="67" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="433" spans="2:4">
       <c r="B433" s="67">
@@ -28166,7 +28291,9 @@
       <c r="C433" s="292" t="s">
         <v>210</v>
       </c>
-      <c r="D433" s="67"/>
+      <c r="D433" s="67" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="434" spans="2:4">
       <c r="B434" s="67">
@@ -28175,7 +28302,9 @@
       <c r="C434" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D434" s="67"/>
+      <c r="D434" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="435" spans="2:4">
       <c r="B435" s="67">
@@ -28184,7 +28313,9 @@
       <c r="C435" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D435" s="67"/>
+      <c r="D435" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="436" spans="2:4">
       <c r="B436" s="67">
@@ -28193,7 +28324,9 @@
       <c r="C436" s="67" t="s">
         <v>1352</v>
       </c>
-      <c r="D436" s="67"/>
+      <c r="D436" s="67" t="s">
+        <v>2594</v>
+      </c>
     </row>
     <row r="437" spans="2:4">
       <c r="B437" s="67">
@@ -28202,7 +28335,9 @@
       <c r="C437" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="D437" s="67"/>
+      <c r="D437" s="194" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="438" spans="2:4">
       <c r="B438" s="67">
@@ -28211,7 +28346,9 @@
       <c r="C438" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D438" s="67"/>
+      <c r="D438" s="67" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="439" spans="2:4">
       <c r="B439" s="67">
@@ -28220,7 +28357,9 @@
       <c r="C439" s="67" t="s">
         <v>1360</v>
       </c>
-      <c r="D439" s="67"/>
+      <c r="D439" s="194" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="440" spans="2:4">
       <c r="B440" s="67">
@@ -28229,7 +28368,9 @@
       <c r="C440" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D440" s="67"/>
+      <c r="D440" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="441" spans="2:4">
       <c r="B441" s="67">
@@ -28238,7 +28379,9 @@
       <c r="C441" s="67" t="s">
         <v>623</v>
       </c>
-      <c r="D441" s="67"/>
+      <c r="D441" s="194" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="442" spans="2:4">
       <c r="B442" s="67">
@@ -28247,7 +28390,9 @@
       <c r="C442" s="67" t="s">
         <v>1358</v>
       </c>
-      <c r="D442" s="67"/>
+      <c r="D442" s="194" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="443" spans="2:4">
       <c r="B443" s="67">
@@ -28256,7 +28401,9 @@
       <c r="C443" s="67" t="s">
         <v>1745</v>
       </c>
-      <c r="D443" s="67"/>
+      <c r="D443" s="194" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="444" spans="2:4">
       <c r="B444" s="67">
@@ -28265,7 +28412,9 @@
       <c r="C444" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="D444" s="67"/>
+      <c r="D444" s="67" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="445" spans="2:4">
       <c r="B445" s="67">
@@ -28274,7 +28423,9 @@
       <c r="C445" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="D445" s="67"/>
+      <c r="D445" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="446" spans="2:4">
       <c r="B446" s="67">
@@ -28283,7 +28434,9 @@
       <c r="C446" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D446" s="67"/>
+      <c r="D446" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="447" spans="2:4">
       <c r="B447" s="67">
@@ -28292,7 +28445,9 @@
       <c r="C447" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D447" s="67"/>
+      <c r="D447" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="448" spans="2:4">
       <c r="B448" s="67">
@@ -28301,7 +28456,9 @@
       <c r="C448" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D448" s="67"/>
+      <c r="D448" s="67" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="449" spans="2:4">
       <c r="B449" s="67">
@@ -28310,7 +28467,9 @@
       <c r="C449" s="67" t="s">
         <v>1358</v>
       </c>
-      <c r="D449" s="67"/>
+      <c r="D449" s="194" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="450" spans="2:4">
       <c r="B450" s="67">
@@ -28319,7 +28478,9 @@
       <c r="C450" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D450" s="67"/>
+      <c r="D450" s="67" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="451" spans="2:4">
       <c r="B451" s="67">
@@ -28328,7 +28489,9 @@
       <c r="C451" s="67" t="s">
         <v>1358</v>
       </c>
-      <c r="D451" s="67"/>
+      <c r="D451" s="67" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="452" spans="2:4">
       <c r="B452" s="67">
@@ -28337,16 +28500,20 @@
       <c r="C452" s="67" t="s">
         <v>1738</v>
       </c>
-      <c r="D452" s="67"/>
+      <c r="D452" s="194" t="s">
+        <v>1738</v>
+      </c>
     </row>
     <row r="453" spans="2:4">
       <c r="B453" s="67">
         <v>75</v>
       </c>
       <c r="C453" s="67" t="s">
-        <v>3688</v>
-      </c>
-      <c r="D453" s="67"/>
+        <v>3686</v>
+      </c>
+      <c r="D453" s="67" t="s">
+        <v>1738</v>
+      </c>
     </row>
     <row r="454" spans="2:4">
       <c r="B454" s="67">
@@ -28355,7 +28522,9 @@
       <c r="C454" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D454" s="67"/>
+      <c r="D454" s="194" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="455" spans="2:4">
       <c r="B455" s="67">
@@ -28364,7 +28533,651 @@
       <c r="C455" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D455" s="67"/>
+      <c r="D455" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="B457" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C457" s="309">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4">
+      <c r="B461" s="57" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C461" s="57" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D461" s="57" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4">
+      <c r="B462" s="57"/>
+      <c r="C462" s="57" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D462" s="57"/>
+    </row>
+    <row r="464" spans="2:4">
+      <c r="B464" s="71" t="s">
+        <v>636</v>
+      </c>
+      <c r="C464" s="71" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D464" s="71" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4">
+      <c r="B465" s="67">
+        <v>1</v>
+      </c>
+      <c r="C465" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D465" s="67"/>
+    </row>
+    <row r="466" spans="2:4">
+      <c r="B466" s="67">
+        <v>2</v>
+      </c>
+      <c r="C466" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D466" s="67"/>
+    </row>
+    <row r="467" spans="2:4">
+      <c r="B467" s="67">
+        <v>3</v>
+      </c>
+      <c r="C467" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D467" s="67"/>
+    </row>
+    <row r="468" spans="2:4">
+      <c r="B468" s="67">
+        <v>4</v>
+      </c>
+      <c r="C468" s="67" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D468" s="67"/>
+    </row>
+    <row r="469" spans="2:4">
+      <c r="B469" s="67">
+        <v>5</v>
+      </c>
+      <c r="C469" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D469" s="67"/>
+    </row>
+    <row r="470" spans="2:4">
+      <c r="B470" s="67">
+        <v>6</v>
+      </c>
+      <c r="C470" s="292" t="s">
+        <v>205</v>
+      </c>
+      <c r="D470" s="67"/>
+    </row>
+    <row r="471" spans="2:4">
+      <c r="B471" s="67">
+        <v>7</v>
+      </c>
+      <c r="C471" s="292" t="s">
+        <v>201</v>
+      </c>
+      <c r="D471" s="67" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4">
+      <c r="B472" s="67">
+        <v>8</v>
+      </c>
+      <c r="C472" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D472" s="67"/>
+    </row>
+    <row r="473" spans="2:4">
+      <c r="B473" s="67">
+        <v>9</v>
+      </c>
+      <c r="C473" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D473" s="67"/>
+    </row>
+    <row r="474" spans="2:4">
+      <c r="B474" s="67">
+        <v>10</v>
+      </c>
+      <c r="C474" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D474" s="67"/>
+    </row>
+    <row r="475" spans="2:4">
+      <c r="B475" s="67">
+        <v>11</v>
+      </c>
+      <c r="C475" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D475" s="67"/>
+    </row>
+    <row r="476" spans="2:4">
+      <c r="B476" s="67">
+        <v>12</v>
+      </c>
+      <c r="C476" s="67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D476" s="67"/>
+    </row>
+    <row r="477" spans="2:4">
+      <c r="B477" s="67">
+        <v>13</v>
+      </c>
+      <c r="C477" s="67" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D477" s="67"/>
+    </row>
+    <row r="478" spans="2:4">
+      <c r="B478" s="67">
+        <v>14</v>
+      </c>
+      <c r="C478" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D478" s="67"/>
+    </row>
+    <row r="479" spans="2:4">
+      <c r="B479" s="67">
+        <v>15</v>
+      </c>
+      <c r="C479" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D479" s="67"/>
+    </row>
+    <row r="480" spans="2:4">
+      <c r="B480" s="67">
+        <v>16</v>
+      </c>
+      <c r="C480" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D480" s="67"/>
+    </row>
+    <row r="481" spans="2:4">
+      <c r="B481" s="67">
+        <v>17</v>
+      </c>
+      <c r="C481" s="67" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D481" s="67"/>
+    </row>
+    <row r="482" spans="2:4">
+      <c r="B482" s="67">
+        <v>18</v>
+      </c>
+      <c r="C482" s="292" t="s">
+        <v>205</v>
+      </c>
+      <c r="D482" s="67"/>
+    </row>
+    <row r="483" spans="2:4">
+      <c r="B483" s="67">
+        <v>19</v>
+      </c>
+      <c r="C483" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D483" s="67"/>
+    </row>
+    <row r="484" spans="2:4">
+      <c r="B484" s="67">
+        <v>20</v>
+      </c>
+      <c r="C484" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D484" s="67"/>
+    </row>
+    <row r="485" spans="2:4">
+      <c r="B485" s="67">
+        <v>21</v>
+      </c>
+      <c r="C485" s="67" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D485" s="67"/>
+    </row>
+    <row r="486" spans="2:4">
+      <c r="B486" s="67">
+        <v>22</v>
+      </c>
+      <c r="C486" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D486" s="67"/>
+    </row>
+    <row r="487" spans="2:4">
+      <c r="B487" s="67">
+        <v>23</v>
+      </c>
+      <c r="C487" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D487" s="67"/>
+    </row>
+    <row r="488" spans="2:4">
+      <c r="B488" s="67">
+        <v>24</v>
+      </c>
+      <c r="C488" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D488" s="67"/>
+    </row>
+    <row r="489" spans="2:4">
+      <c r="B489" s="67">
+        <v>25</v>
+      </c>
+      <c r="C489" s="67" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D489" s="67"/>
+    </row>
+    <row r="490" spans="2:4">
+      <c r="B490" s="67">
+        <v>26</v>
+      </c>
+      <c r="C490" s="292" t="s">
+        <v>210</v>
+      </c>
+      <c r="D490" s="67"/>
+    </row>
+    <row r="491" spans="2:4">
+      <c r="B491" s="67">
+        <v>27</v>
+      </c>
+      <c r="C491" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D491" s="67"/>
+    </row>
+    <row r="492" spans="2:4">
+      <c r="B492" s="67">
+        <v>28</v>
+      </c>
+      <c r="C492" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D492" s="67"/>
+    </row>
+    <row r="493" spans="2:4">
+      <c r="B493" s="67">
+        <v>29</v>
+      </c>
+      <c r="C493" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="D493" s="67"/>
+    </row>
+    <row r="494" spans="2:4">
+      <c r="B494" s="67">
+        <v>30</v>
+      </c>
+      <c r="C494" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D494" s="67"/>
+    </row>
+    <row r="495" spans="2:4">
+      <c r="B495" s="67">
+        <v>31</v>
+      </c>
+      <c r="C495" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D495" s="67"/>
+    </row>
+    <row r="496" spans="2:4">
+      <c r="B496" s="67">
+        <v>32</v>
+      </c>
+      <c r="C496" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D496" s="67"/>
+    </row>
+    <row r="497" spans="2:4">
+      <c r="B497" s="67">
+        <v>33</v>
+      </c>
+      <c r="C497" s="67"/>
+      <c r="D497" s="67"/>
+    </row>
+    <row r="498" spans="2:4">
+      <c r="B498" s="67">
+        <v>34</v>
+      </c>
+      <c r="C498" s="67"/>
+      <c r="D498" s="67"/>
+    </row>
+    <row r="499" spans="2:4">
+      <c r="B499" s="67">
+        <v>35</v>
+      </c>
+      <c r="C499" s="67"/>
+      <c r="D499" s="67"/>
+    </row>
+    <row r="500" spans="2:4">
+      <c r="B500" s="67">
+        <v>36</v>
+      </c>
+      <c r="C500" s="67"/>
+      <c r="D500" s="67"/>
+    </row>
+    <row r="501" spans="2:4">
+      <c r="B501" s="67">
+        <v>37</v>
+      </c>
+      <c r="C501" s="67"/>
+      <c r="D501" s="67"/>
+    </row>
+    <row r="502" spans="2:4">
+      <c r="B502" s="67">
+        <v>38</v>
+      </c>
+      <c r="C502" s="67"/>
+      <c r="D502" s="67"/>
+    </row>
+    <row r="503" spans="2:4">
+      <c r="B503" s="67">
+        <v>39</v>
+      </c>
+      <c r="C503" s="67"/>
+      <c r="D503" s="67"/>
+    </row>
+    <row r="504" spans="2:4">
+      <c r="B504" s="67">
+        <v>40</v>
+      </c>
+      <c r="C504" s="67"/>
+      <c r="D504" s="67"/>
+    </row>
+    <row r="505" spans="2:4">
+      <c r="B505" s="67">
+        <v>41</v>
+      </c>
+      <c r="C505" s="67"/>
+      <c r="D505" s="67"/>
+    </row>
+    <row r="506" spans="2:4">
+      <c r="B506" s="67">
+        <v>42</v>
+      </c>
+      <c r="C506" s="67"/>
+      <c r="D506" s="67"/>
+    </row>
+    <row r="507" spans="2:4">
+      <c r="B507" s="67">
+        <v>43</v>
+      </c>
+      <c r="C507" s="67"/>
+      <c r="D507" s="67"/>
+    </row>
+    <row r="508" spans="2:4">
+      <c r="B508" s="67">
+        <v>44</v>
+      </c>
+      <c r="C508" s="67"/>
+      <c r="D508" s="67"/>
+    </row>
+    <row r="509" spans="2:4">
+      <c r="B509" s="67">
+        <v>45</v>
+      </c>
+      <c r="C509" s="67"/>
+      <c r="D509" s="67"/>
+    </row>
+    <row r="510" spans="2:4">
+      <c r="B510" s="67">
+        <v>46</v>
+      </c>
+      <c r="C510" s="67"/>
+      <c r="D510" s="67"/>
+    </row>
+    <row r="511" spans="2:4">
+      <c r="B511" s="67">
+        <v>47</v>
+      </c>
+      <c r="C511" s="67"/>
+      <c r="D511" s="67"/>
+    </row>
+    <row r="512" spans="2:4">
+      <c r="B512" s="67">
+        <v>48</v>
+      </c>
+      <c r="C512" s="67"/>
+      <c r="D512" s="67"/>
+    </row>
+    <row r="513" spans="2:4">
+      <c r="B513" s="67">
+        <v>49</v>
+      </c>
+      <c r="C513" s="67"/>
+      <c r="D513" s="67"/>
+    </row>
+    <row r="514" spans="2:4">
+      <c r="B514" s="67">
+        <v>50</v>
+      </c>
+      <c r="C514" s="67"/>
+      <c r="D514" s="67"/>
+    </row>
+    <row r="515" spans="2:4">
+      <c r="B515" s="67">
+        <v>51</v>
+      </c>
+      <c r="C515" s="67"/>
+      <c r="D515" s="67"/>
+    </row>
+    <row r="516" spans="2:4">
+      <c r="B516" s="67">
+        <v>52</v>
+      </c>
+      <c r="C516" s="67"/>
+      <c r="D516" s="67"/>
+    </row>
+    <row r="517" spans="2:4">
+      <c r="B517" s="67">
+        <v>53</v>
+      </c>
+      <c r="C517" s="67"/>
+      <c r="D517" s="67"/>
+    </row>
+    <row r="518" spans="2:4">
+      <c r="B518" s="67">
+        <v>54</v>
+      </c>
+      <c r="C518" s="67"/>
+      <c r="D518" s="67"/>
+    </row>
+    <row r="519" spans="2:4">
+      <c r="B519" s="67">
+        <v>55</v>
+      </c>
+      <c r="C519" s="67"/>
+      <c r="D519" s="67"/>
+    </row>
+    <row r="520" spans="2:4">
+      <c r="B520" s="67">
+        <v>56</v>
+      </c>
+      <c r="C520" s="67"/>
+      <c r="D520" s="67"/>
+    </row>
+    <row r="521" spans="2:4">
+      <c r="B521" s="67">
+        <v>57</v>
+      </c>
+      <c r="C521" s="67"/>
+      <c r="D521" s="67"/>
+    </row>
+    <row r="522" spans="2:4">
+      <c r="B522" s="67">
+        <v>58</v>
+      </c>
+      <c r="C522" s="67"/>
+      <c r="D522" s="67"/>
+    </row>
+    <row r="523" spans="2:4">
+      <c r="B523" s="67">
+        <v>59</v>
+      </c>
+      <c r="C523" s="67"/>
+      <c r="D523" s="67"/>
+    </row>
+    <row r="524" spans="2:4">
+      <c r="B524" s="67">
+        <v>60</v>
+      </c>
+      <c r="C524" s="67"/>
+      <c r="D524" s="67"/>
+    </row>
+    <row r="525" spans="2:4">
+      <c r="B525" s="67">
+        <v>61</v>
+      </c>
+      <c r="C525" s="67"/>
+      <c r="D525" s="67"/>
+    </row>
+    <row r="526" spans="2:4">
+      <c r="B526" s="67">
+        <v>62</v>
+      </c>
+      <c r="C526" s="67"/>
+      <c r="D526" s="67"/>
+    </row>
+    <row r="527" spans="2:4">
+      <c r="B527" s="67">
+        <v>63</v>
+      </c>
+      <c r="C527" s="67"/>
+      <c r="D527" s="67"/>
+    </row>
+    <row r="528" spans="2:4">
+      <c r="B528" s="67">
+        <v>64</v>
+      </c>
+      <c r="C528" s="67"/>
+      <c r="D528" s="67"/>
+    </row>
+    <row r="529" spans="2:4">
+      <c r="B529" s="67">
+        <v>65</v>
+      </c>
+      <c r="C529" s="67"/>
+      <c r="D529" s="67"/>
+    </row>
+    <row r="530" spans="2:4">
+      <c r="B530" s="67">
+        <v>66</v>
+      </c>
+      <c r="C530" s="67"/>
+      <c r="D530" s="67"/>
+    </row>
+    <row r="531" spans="2:4">
+      <c r="B531" s="67">
+        <v>67</v>
+      </c>
+      <c r="C531" s="67"/>
+      <c r="D531" s="67"/>
+    </row>
+    <row r="532" spans="2:4">
+      <c r="B532" s="67">
+        <v>68</v>
+      </c>
+      <c r="C532" s="67"/>
+      <c r="D532" s="67"/>
+    </row>
+    <row r="533" spans="2:4">
+      <c r="B533" s="67">
+        <v>69</v>
+      </c>
+      <c r="C533" s="67"/>
+      <c r="D533" s="67"/>
+    </row>
+    <row r="534" spans="2:4">
+      <c r="B534" s="67">
+        <v>70</v>
+      </c>
+      <c r="C534" s="67"/>
+      <c r="D534" s="67"/>
+    </row>
+    <row r="535" spans="2:4">
+      <c r="B535" s="67">
+        <v>71</v>
+      </c>
+      <c r="C535" s="67"/>
+      <c r="D535" s="67"/>
+    </row>
+    <row r="536" spans="2:4">
+      <c r="B536" s="67">
+        <v>72</v>
+      </c>
+      <c r="C536" s="67"/>
+      <c r="D536" s="67"/>
+    </row>
+    <row r="537" spans="2:4">
+      <c r="B537" s="67">
+        <v>73</v>
+      </c>
+      <c r="C537" s="67"/>
+      <c r="D537" s="67"/>
+    </row>
+    <row r="538" spans="2:4">
+      <c r="B538" s="67">
+        <v>74</v>
+      </c>
+      <c r="C538" s="67"/>
+      <c r="D538" s="67"/>
+    </row>
+    <row r="539" spans="2:4">
+      <c r="B539" s="67">
+        <v>75</v>
+      </c>
+      <c r="C539" s="67"/>
+      <c r="D539" s="67"/>
+    </row>
+    <row r="540" spans="2:4">
+      <c r="B540" s="67">
+        <v>76</v>
+      </c>
+      <c r="C540" s="67"/>
+      <c r="D540" s="67"/>
+    </row>
+    <row r="541" spans="2:4">
+      <c r="B541" s="67">
+        <v>77</v>
+      </c>
+      <c r="C541" s="67"/>
+      <c r="D541" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33600,7 +34413,7 @@
         <v>56</v>
       </c>
       <c r="C1148" s="222" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1150" spans="1:10">
@@ -33844,7 +34657,7 @@
         <v>3474</v>
       </c>
       <c r="J1226" s="272" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1227" spans="3:15">
@@ -33852,7 +34665,7 @@
         <v>3475</v>
       </c>
       <c r="J1227" s="300" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="K1227" s="299"/>
       <c r="L1227" s="299"/>
@@ -33920,17 +34733,17 @@
         <v>59</v>
       </c>
       <c r="C1240" s="120" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1242" spans="1:4">
       <c r="C1242" s="120" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
       <c r="D1244" s="120" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1245" spans="1:4">
@@ -33940,22 +34753,22 @@
     </row>
     <row r="1248" spans="1:4">
       <c r="C1248" s="120" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1250" spans="3:9">
       <c r="D1250" s="120" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1252" spans="3:9">
       <c r="D1252" s="120" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1253" spans="3:9">
       <c r="E1253" s="120" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="1254" spans="3:9">
@@ -33970,28 +34783,28 @@
     </row>
     <row r="1257" spans="3:9">
       <c r="C1257" s="120" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1259" spans="3:9">
       <c r="D1259" s="120" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1260" spans="3:9">
       <c r="D1260" s="120" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="I1260" s="120" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1262" spans="3:9">
       <c r="D1262" s="120" t="s">
+        <v>3514</v>
+      </c>
+      <c r="I1262" s="120" t="s">
         <v>3515</v>
-      </c>
-      <c r="I1262" s="120" t="s">
-        <v>3516</v>
       </c>
     </row>
     <row r="1263" spans="3:9">
@@ -33999,7 +34812,7 @@
         <v>37</v>
       </c>
       <c r="I1263" s="120" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -34009,13 +34822,13 @@
     </row>
     <row r="1268" spans="1:5">
       <c r="C1268" s="232" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1269" spans="1:5">
       <c r="C1269"/>
       <c r="E1269" s="301" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1271" spans="1:5">
@@ -34023,7 +34836,7 @@
     </row>
     <row r="1272" spans="1:5">
       <c r="C1272" s="231" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1273" spans="1:5">
@@ -34034,22 +34847,22 @@
     </row>
     <row r="1275" spans="1:5">
       <c r="D1275" s="120" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1278" spans="1:5">
       <c r="D1278" s="120" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="1280" spans="1:5">
       <c r="E1280" s="120" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1282" spans="1:5">
       <c r="E1282" s="120" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="1286" spans="1:5">
@@ -34061,12 +34874,12 @@
     </row>
     <row r="1288" spans="1:5">
       <c r="B1288" s="229" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1289" spans="1:5">
       <c r="B1289" s="39" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="1290" spans="1:5">
@@ -34079,7 +34892,7 @@
     </row>
     <row r="1292" spans="1:5">
       <c r="B1292" s="231" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1293" spans="1:5">
@@ -34095,7 +34908,7 @@
     </row>
     <row r="1296" spans="1:5">
       <c r="B1296" s="232" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="1297" spans="1:10">
@@ -34103,7 +34916,7 @@
     </row>
     <row r="1298" spans="1:10">
       <c r="B1298" s="232" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1299" spans="1:10">
@@ -34111,7 +34924,7 @@
     </row>
     <row r="1300" spans="1:10">
       <c r="B1300" s="232" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1301" spans="1:10">
@@ -34132,7 +34945,7 @@
     </row>
     <row r="1307" spans="1:10" s="222" customFormat="1">
       <c r="A1307" s="222" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1310" spans="1:10" s="222" customFormat="1">
@@ -34140,7 +34953,7 @@
         <v>1568</v>
       </c>
       <c r="C1310" s="222" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1312" spans="1:10">
@@ -34148,7 +34961,7 @@
     </row>
     <row r="1313" spans="3:10">
       <c r="C1313" s="226" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="D1313" s="298"/>
       <c r="E1313" s="298"/>
@@ -34160,7 +34973,7 @@
     </row>
     <row r="1314" spans="3:10">
       <c r="C1314" s="226" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="D1314" s="298"/>
       <c r="E1314" s="298"/>
@@ -34184,7 +34997,7 @@
     </row>
     <row r="1316" spans="3:10">
       <c r="C1316" s="226" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="D1316" s="298"/>
       <c r="E1316" s="298"/>
@@ -34196,7 +35009,7 @@
     </row>
     <row r="1317" spans="3:10">
       <c r="C1317" s="226" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="D1317" s="298"/>
       <c r="E1317" s="298"/>
@@ -34220,7 +35033,7 @@
     </row>
     <row r="1319" spans="3:10">
       <c r="C1319" s="226" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="D1319" s="298"/>
       <c r="E1319" s="298"/>
@@ -34232,7 +35045,7 @@
     </row>
     <row r="1320" spans="3:10">
       <c r="C1320" s="226" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D1320" s="298"/>
       <c r="E1320" s="298"/>
@@ -34244,7 +35057,7 @@
     </row>
     <row r="1321" spans="3:10">
       <c r="C1321" s="226" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="D1321" s="298"/>
       <c r="E1321" s="298"/>
@@ -34268,7 +35081,7 @@
     </row>
     <row r="1323" spans="3:10">
       <c r="C1323" s="226" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="D1323" s="298"/>
       <c r="E1323" s="298"/>
@@ -34289,7 +35102,7 @@
     </row>
     <row r="1325" spans="3:10">
       <c r="D1325" s="120" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="F1325" s="298"/>
       <c r="G1325" s="298"/>
@@ -34307,7 +35120,7 @@
     </row>
     <row r="1327" spans="3:10">
       <c r="C1327" s="226" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="D1327" s="298"/>
       <c r="E1327" s="298"/>
@@ -34328,42 +35141,42 @@
         <v>62</v>
       </c>
       <c r="B1330" s="120" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1332" spans="1:5">
       <c r="C1332" s="120" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1334" spans="1:5">
       <c r="D1334" s="120" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1335" spans="1:5">
       <c r="E1335" s="207" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="1336" spans="1:5">
       <c r="E1336" s="207" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1337" spans="1:5">
       <c r="E1337" s="82" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
       <c r="E1339" s="120" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
       <c r="E1341" s="120" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1345" spans="1:10">
@@ -34373,78 +35186,78 @@
     </row>
     <row r="1347" spans="1:10">
       <c r="E1347" s="207" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="1348" spans="1:10">
       <c r="E1348" s="82" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="J1348" s="120" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1349" spans="1:10">
       <c r="E1349" s="82" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="J1349" s="120" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1353" spans="1:10" s="305" customFormat="1">
       <c r="A1353" s="305" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="1355" spans="1:10">
       <c r="B1355" s="120" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="1356" spans="1:10">
       <c r="B1356" s="120" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1358" spans="1:10">
       <c r="C1358" s="207" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1359" spans="1:10">
       <c r="C1359" s="82" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1360" spans="1:10">
       <c r="C1360" s="82" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="C1361" s="82" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
       <c r="C1362" s="82" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
       <c r="C1363" s="82" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
       <c r="C1364" s="82" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
       <c r="C1365" s="82" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -34459,32 +35272,32 @@
     </row>
     <row r="1369" spans="1:3">
       <c r="C1369" s="120" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
       <c r="C1370" s="120" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
       <c r="A1375" s="120" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
       <c r="C1378" s="207" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
       <c r="C1379" s="82" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
       <c r="C1380" s="82" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -34499,12 +35312,12 @@
     </row>
     <row r="1384" spans="1:3">
       <c r="C1384" s="207" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
       <c r="C1385" s="82" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -34514,7 +35327,7 @@
     </row>
     <row r="1389" spans="1:3">
       <c r="A1389" s="229" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -34522,7 +35335,7 @@
     </row>
     <row r="1391" spans="1:3">
       <c r="A1391" s="228" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -34530,7 +35343,7 @@
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393" s="206" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
@@ -34538,7 +35351,7 @@
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395" s="206" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
@@ -34546,7 +35359,7 @@
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397" s="228" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
@@ -34554,7 +35367,7 @@
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399" s="206" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
@@ -34562,7 +35375,7 @@
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401" s="228" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
@@ -34570,7 +35383,7 @@
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403" s="229" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
@@ -34578,7 +35391,7 @@
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405" s="230" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
@@ -34586,7 +35399,7 @@
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407" s="231" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
@@ -34594,7 +35407,7 @@
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409" s="230" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
@@ -34602,7 +35415,7 @@
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411" s="232" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
@@ -34610,7 +35423,7 @@
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413" s="230" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
@@ -34618,7 +35431,7 @@
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415" s="231" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
@@ -34626,7 +35439,7 @@
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417" s="230" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
@@ -34634,7 +35447,7 @@
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419" s="231" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
@@ -34642,7 +35455,7 @@
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421" s="230" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
@@ -34658,7 +35471,7 @@
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425" s="230" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
     </row>
   </sheetData>
@@ -34682,7 +35495,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -34722,126 +35535,126 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="36" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
+        <v>3553</v>
+      </c>
+      <c r="J16" t="s">
         <v>3554</v>
-      </c>
-      <c r="J16" t="s">
-        <v>3555</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
+        <v>3551</v>
+      </c>
+      <c r="J18" t="s">
         <v>3552</v>
-      </c>
-      <c r="J18" t="s">
-        <v>3553</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" t="s">
+        <v>3549</v>
+      </c>
+      <c r="J19" t="s">
         <v>3550</v>
-      </c>
-      <c r="J19" t="s">
-        <v>3551</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" t="s">
+        <v>3547</v>
+      </c>
+      <c r="J20" t="s">
         <v>3548</v>
-      </c>
-      <c r="J20" t="s">
-        <v>3549</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="C25" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="M25" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75">
       <c r="E26" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="M26" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="E27" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="E28" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="E34" t="s">
+        <v>3562</v>
+      </c>
+      <c r="J34" t="s">
         <v>3563</v>
       </c>
-      <c r="J34" t="s">
+      <c r="N34" t="s">
         <v>3564</v>
-      </c>
-      <c r="N34" t="s">
-        <v>3565</v>
       </c>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="41" spans="2:14">
       <c r="C41" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="43" spans="2:14">
       <c r="D43" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="E45" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="47" spans="2:14">
       <c r="E47" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="E48" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
     </row>
   </sheetData>
@@ -40064,7 +40877,7 @@
     </row>
     <row r="178" spans="2:10">
       <c r="C178" s="39" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="179" spans="2:10">

--- a/NOTE_OCA.xlsx
+++ b/NOTE_OCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Java basic" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Test Lần 2" sheetId="11" r:id="rId10"/>
     <sheet name="Một số case quan trọng" sheetId="10" r:id="rId11"/>
     <sheet name="Đặc biệt về String " sheetId="12" r:id="rId12"/>
+    <sheet name="Datetime API khó" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8869" uniqueCount="3693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8988" uniqueCount="3712">
   <si>
     <t>1.1 Comments:</t>
   </si>
@@ -13700,9 +13701,6 @@
     <t>// Outputs 5</t>
   </si>
   <si>
-    <t>Lưu ý hàm ensureCapacity(int minimumCapacity)</t>
-  </si>
-  <si>
     <t>Thì capacity Của stringBuilder ko thay đổi gì</t>
   </si>
   <si>
@@ -14232,9 +14230,6 @@
       </rPr>
       <t>//3</t>
     </r>
-  </si>
-  <si>
-    <t>Hàm delete của StringBuilder . Lưu ý StringBuilder chỉ có hàm delete, ko hề có bát kì hàm nào khác empty content của StringBuilder</t>
   </si>
   <si>
     <t>Ví dụ : StringBuilder sb  = new StringBuilder("Hung");</t>
@@ -15616,6 +15611,313 @@
   </si>
   <si>
     <t>End Page:</t>
+  </si>
+  <si>
+    <t>BDEF</t>
+  </si>
+  <si>
+    <t>1120/2513</t>
+  </si>
+  <si>
+    <t>ABDF</t>
+  </si>
+  <si>
+    <t>50/66</t>
+  </si>
+  <si>
+    <t>2.1 Lưu ý hàm ensureCapacity(int minimumCapacity)</t>
+  </si>
+  <si>
+    <t>2.2 Hàm delete của StringBuilder . Lưu ý StringBuilder chỉ có hàm delete, ko hề có bát kì hàm nào khác empty content của StringBuilder</t>
+  </si>
+  <si>
+    <t>Hàm setLength() của StringBuilder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StringBuilder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFFA657"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF7B72"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA5D6FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12345678"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>setLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF79C0FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System.out.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFFA657"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>setLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF79C0FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// 10</t>
+  </si>
+  <si>
+    <t>Chỗ này append thêm 5 kí tự null \u0000</t>
+  </si>
+  <si>
+    <r>
+      <t>System.out.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD2A8FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFFA657"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC9D1D9"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>//12345</t>
+  </si>
+  <si>
+    <t>// 12345</t>
+  </si>
+  <si>
+    <t>ArrayIndexOutOfBoundsException, StringIndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>là 2 runtimeExxception, do đó ko bắt buộc phải hanlde hoặc khai báo, nghĩa là có thể throws tùy ý 1 trong hai hoặc cả 2</t>
+  </si>
+  <si>
+    <t>java.time.LocalDate dt = java.time.LocalDate.parse("2015-01-01").minusMonths(1).minusDays(1).plusYears(1);</t>
+  </si>
+  <si>
+    <t>System.out.println(dt);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-11-30</t>
   </si>
 </sst>
 </file>
@@ -16929,7 +17231,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="100" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17602,10 +17904,17 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="123" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -22080,16 +22389,16 @@
       <c r="C562" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D562" s="308" t="s">
+      <c r="D562" s="310" t="s">
         <v>219</v>
       </c>
-      <c r="E562" s="308"/>
-      <c r="F562" s="308"/>
-      <c r="G562" s="308"/>
-      <c r="H562" s="308"/>
-      <c r="I562" s="308"/>
-      <c r="J562" s="308"/>
-      <c r="K562" s="308"/>
+      <c r="E562" s="310"/>
+      <c r="F562" s="310"/>
+      <c r="G562" s="310"/>
+      <c r="H562" s="310"/>
+      <c r="I562" s="310"/>
+      <c r="J562" s="310"/>
+      <c r="K562" s="310"/>
       <c r="L562" s="3" t="s">
         <v>89</v>
       </c>
@@ -22156,16 +22465,16 @@
       <c r="C568" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D568" s="308" t="s">
+      <c r="D568" s="310" t="s">
         <v>232</v>
       </c>
-      <c r="E568" s="308"/>
-      <c r="F568" s="308"/>
-      <c r="G568" s="308"/>
-      <c r="H568" s="308"/>
-      <c r="I568" s="308"/>
-      <c r="J568" s="308"/>
-      <c r="K568" s="308"/>
+      <c r="E568" s="310"/>
+      <c r="F568" s="310"/>
+      <c r="G568" s="310"/>
+      <c r="H568" s="310"/>
+      <c r="I568" s="310"/>
+      <c r="J568" s="310"/>
+      <c r="K568" s="310"/>
       <c r="L568" s="3" t="s">
         <v>41</v>
       </c>
@@ -23651,8 +23960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D489" sqref="D489"/>
+    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C480" sqref="C480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25606,7 +25915,7 @@
         <v>3481</v>
       </c>
       <c r="D209" s="39" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="210" spans="2:5">
@@ -25642,7 +25951,7 @@
         <v>245</v>
       </c>
       <c r="E212" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="213" spans="2:5">
@@ -25656,7 +25965,7 @@
         <v>210</v>
       </c>
       <c r="E213" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="214" spans="2:5">
@@ -25712,7 +26021,7 @@
         <v>245</v>
       </c>
       <c r="E218" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="219" spans="2:5">
@@ -25748,7 +26057,7 @@
         <v>201</v>
       </c>
       <c r="E221" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="222" spans="2:5">
@@ -25817,7 +26126,7 @@
         <v>1361</v>
       </c>
       <c r="E227" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="228" spans="2:10">
@@ -25875,7 +26184,7 @@
         <v>210</v>
       </c>
       <c r="E232" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="233" spans="2:10">
@@ -25889,7 +26198,7 @@
         <v>673</v>
       </c>
       <c r="J233" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="234" spans="2:10">
@@ -25903,7 +26212,7 @@
         <v>201</v>
       </c>
       <c r="J234" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="235" spans="2:10">
@@ -25917,7 +26226,7 @@
         <v>204</v>
       </c>
       <c r="J235" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="236" spans="2:10">
@@ -25951,7 +26260,7 @@
         <v>204</v>
       </c>
       <c r="E238" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="239" spans="2:10">
@@ -26009,7 +26318,7 @@
         <v>245</v>
       </c>
       <c r="E243" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="244" spans="2:11">
@@ -26023,7 +26332,7 @@
         <v>204</v>
       </c>
       <c r="K244" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="245" spans="2:11">
@@ -26070,7 +26379,7 @@
         <v>1357</v>
       </c>
       <c r="E248" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="249" spans="2:11">
@@ -26084,7 +26393,7 @@
         <v>204</v>
       </c>
       <c r="F249" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="250" spans="2:11">
@@ -26098,7 +26407,7 @@
         <v>201</v>
       </c>
       <c r="F250" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="251" spans="2:11">
@@ -26156,7 +26465,7 @@
         <v>209</v>
       </c>
       <c r="E255" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="256" spans="2:11">
@@ -26170,7 +26479,7 @@
         <v>1361</v>
       </c>
       <c r="G256" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="257" spans="2:17">
@@ -26228,16 +26537,16 @@
         <v>210</v>
       </c>
       <c r="G261" t="s">
+        <v>3589</v>
+      </c>
+      <c r="H261" t="s">
+        <v>3588</v>
+      </c>
+      <c r="P261" t="s">
         <v>3590</v>
       </c>
-      <c r="H261" t="s">
-        <v>3589</v>
-      </c>
-      <c r="P261" t="s">
+      <c r="Q261" t="s">
         <v>3591</v>
-      </c>
-      <c r="Q261" t="s">
-        <v>3592</v>
       </c>
     </row>
     <row r="262" spans="2:17">
@@ -26251,7 +26560,7 @@
         <v>245</v>
       </c>
       <c r="G262" s="207" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="263" spans="2:17">
@@ -26265,10 +26574,10 @@
         <v>210</v>
       </c>
       <c r="G263" s="207" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="P263" s="207" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="264" spans="2:17">
@@ -26282,10 +26591,10 @@
         <v>2594</v>
       </c>
       <c r="G264" s="82" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="P264" s="82" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="265" spans="2:17">
@@ -26299,10 +26608,10 @@
         <v>210</v>
       </c>
       <c r="G265" s="82" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="P265" s="82" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="266" spans="2:17">
@@ -26316,7 +26625,7 @@
         <v>211</v>
       </c>
       <c r="G266" s="82" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="P266" s="82" t="s">
         <v>37</v>
@@ -26375,13 +26684,13 @@
         <v>673</v>
       </c>
       <c r="G270" s="304" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="H270" s="39"/>
       <c r="I270" s="39"/>
       <c r="J270" s="39"/>
       <c r="L270" s="275" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="M270" s="294"/>
       <c r="N270" s="294"/>
@@ -26399,7 +26708,7 @@
         <v>210</v>
       </c>
       <c r="L271" s="275" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="M271" s="294"/>
       <c r="N271" s="294"/>
@@ -26417,7 +26726,7 @@
         <v>201</v>
       </c>
       <c r="L272" s="275" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="M272" s="294"/>
       <c r="N272" s="294"/>
@@ -26435,7 +26744,7 @@
         <v>210</v>
       </c>
       <c r="E273" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="274" spans="2:18">
@@ -26537,10 +26846,10 @@
         <v>1743</v>
       </c>
       <c r="F282" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="L282" s="39" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="M282" s="39"/>
       <c r="N282" s="39"/>
@@ -26557,7 +26866,7 @@
         <v>245</v>
       </c>
       <c r="F283" s="207" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="284" spans="2:18">
@@ -26571,10 +26880,10 @@
         <v>2699</v>
       </c>
       <c r="F284" s="82" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="M284" s="304" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="N284" s="39"/>
       <c r="O284" s="39"/>
@@ -26596,7 +26905,7 @@
         <v>37</v>
       </c>
       <c r="M285" s="304" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="N285" s="39"/>
       <c r="O285" s="39"/>
@@ -26634,10 +26943,10 @@
         <v>210</v>
       </c>
       <c r="F287" s="230" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="M287" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="289" spans="2:4">
@@ -27049,7 +27358,7 @@
         <v>205</v>
       </c>
       <c r="E328" s="120" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="F328" s="120"/>
       <c r="G328" s="120"/>
@@ -27071,7 +27380,7 @@
         <v>1357</v>
       </c>
       <c r="E329" s="120" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="F329" s="120"/>
       <c r="G329" s="120"/>
@@ -27104,7 +27413,7 @@
         <v>202</v>
       </c>
       <c r="E331" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="332" spans="2:13">
@@ -27118,7 +27427,7 @@
         <v>245</v>
       </c>
       <c r="E332" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="333" spans="2:13">
@@ -27198,7 +27507,7 @@
         <v>201</v>
       </c>
       <c r="E339" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="340" spans="2:5">
@@ -27366,18 +27675,18 @@
         <v>1738</v>
       </c>
       <c r="F354" s="39" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="G354" s="39" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="39"/>
       <c r="M354" t="s">
+        <v>3659</v>
+      </c>
+      <c r="N354" s="206" t="s">
         <v>3661</v>
-      </c>
-      <c r="N354" s="206" t="s">
-        <v>3663</v>
       </c>
     </row>
     <row r="355" spans="2:14">
@@ -27391,7 +27700,7 @@
         <v>1351</v>
       </c>
       <c r="N355" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="356" spans="2:14">
@@ -27405,7 +27714,7 @@
         <v>204</v>
       </c>
       <c r="G356" s="58" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
       <c r="H356" s="43"/>
       <c r="I356" s="43"/>
@@ -27413,7 +27722,7 @@
       <c r="K356" s="43"/>
       <c r="L356" s="43"/>
       <c r="M356" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="357" spans="2:14">
@@ -27424,7 +27733,7 @@
         <v>245</v>
       </c>
       <c r="G357" s="58" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
       <c r="H357" s="43"/>
       <c r="I357" s="43"/>
@@ -27432,7 +27741,7 @@
       <c r="K357" s="43"/>
       <c r="L357" s="43"/>
       <c r="M357" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="358" spans="2:14">
@@ -27446,7 +27755,7 @@
         <v>245</v>
       </c>
       <c r="G358" s="58" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="H358" s="43"/>
       <c r="I358" s="43"/>
@@ -27465,7 +27774,7 @@
         <v>1361</v>
       </c>
       <c r="G359" s="58" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="H359" s="43"/>
       <c r="I359" s="43"/>
@@ -27484,14 +27793,14 @@
         <v>623</v>
       </c>
       <c r="G360" s="306" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="H360" s="43"/>
       <c r="I360" s="43"/>
       <c r="J360" s="43"/>
       <c r="K360" s="43"/>
       <c r="L360" s="43" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="361" spans="2:14">
@@ -27505,14 +27814,14 @@
         <v>208</v>
       </c>
       <c r="G361" s="306" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
       <c r="H361" s="43"/>
       <c r="I361" s="43"/>
       <c r="J361" s="43"/>
       <c r="K361" s="43"/>
       <c r="L361" s="43" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="362" spans="2:14">
@@ -27575,10 +27884,10 @@
         <v>1355</v>
       </c>
       <c r="F365" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="G365" s="306" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="366" spans="2:14">
@@ -27647,7 +27956,7 @@
         <v>204</v>
       </c>
       <c r="F371" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="373" spans="2:6">
@@ -27677,7 +27986,7 @@
         <v>3481</v>
       </c>
       <c r="D377" s="39" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="378" spans="2:6">
@@ -28214,10 +28523,10 @@
         <v>48</v>
       </c>
       <c r="C426" s="292" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="D426" s="194" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="427" spans="2:6">
@@ -28509,7 +28818,7 @@
         <v>75</v>
       </c>
       <c r="C453" s="67" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="D453" s="67" t="s">
         <v>1738</v>
@@ -28539,29 +28848,31 @@
     </row>
     <row r="457" spans="2:4">
       <c r="B457" t="s">
-        <v>3688</v>
-      </c>
-      <c r="C457" s="309">
+        <v>3686</v>
+      </c>
+      <c r="C457" s="308">
         <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="461" spans="2:4">
       <c r="B461" s="57" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C461" s="57" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D461" s="57" t="s">
         <v>3689</v>
-      </c>
-      <c r="C461" s="57" t="s">
-        <v>3690</v>
-      </c>
-      <c r="D461" s="57" t="s">
-        <v>3691</v>
       </c>
     </row>
     <row r="462" spans="2:4">
       <c r="B462" s="57"/>
       <c r="C462" s="57" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D462" s="57" t="s">
         <v>3692</v>
       </c>
-      <c r="D462" s="57"/>
     </row>
     <row r="464" spans="2:4">
       <c r="B464" s="71" t="s">
@@ -28574,151 +28885,187 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="465" spans="2:4">
+    <row r="465" spans="2:10">
       <c r="B465" s="67">
         <v>1</v>
       </c>
       <c r="C465" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D465" s="67"/>
-    </row>
-    <row r="466" spans="2:4">
+      <c r="D465" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="466" spans="2:10">
       <c r="B466" s="67">
         <v>2</v>
       </c>
       <c r="C466" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D466" s="67"/>
-    </row>
-    <row r="467" spans="2:4">
+      <c r="D466" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="467" spans="2:10">
       <c r="B467" s="67">
         <v>3</v>
       </c>
       <c r="C467" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D467" s="67"/>
-    </row>
-    <row r="468" spans="2:4">
+      <c r="D467" s="194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="468" spans="2:10">
       <c r="B468" s="67">
         <v>4</v>
       </c>
       <c r="C468" s="67" t="s">
         <v>2691</v>
       </c>
-      <c r="D468" s="67"/>
-    </row>
-    <row r="469" spans="2:4">
+      <c r="D468" s="194" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="469" spans="2:10">
       <c r="B469" s="67">
         <v>5</v>
       </c>
       <c r="C469" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D469" s="67"/>
-    </row>
-    <row r="470" spans="2:4">
+      <c r="D469" s="194" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="470" spans="2:10">
       <c r="B470" s="67">
         <v>6</v>
       </c>
       <c r="C470" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="D470" s="67"/>
-    </row>
-    <row r="471" spans="2:4">
+      <c r="D470" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="471" spans="2:10">
       <c r="B471" s="67">
         <v>7</v>
       </c>
       <c r="C471" s="292" t="s">
         <v>201</v>
       </c>
-      <c r="D471" s="67" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="472" spans="2:4">
+      <c r="D471" s="194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="472" spans="2:10">
       <c r="B472" s="67">
         <v>8</v>
       </c>
       <c r="C472" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D472" s="67"/>
-    </row>
-    <row r="473" spans="2:4">
+      <c r="D472" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="473" spans="2:10">
       <c r="B473" s="67">
         <v>9</v>
       </c>
       <c r="C473" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D473" s="67"/>
-    </row>
-    <row r="474" spans="2:4">
+      <c r="D473" s="194" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="474" spans="2:10">
       <c r="B474" s="67">
         <v>10</v>
       </c>
       <c r="C474" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D474" s="67"/>
-    </row>
-    <row r="475" spans="2:4">
+      <c r="D474" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="475" spans="2:10">
       <c r="B475" s="67">
         <v>11</v>
       </c>
       <c r="C475" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D475" s="67"/>
-    </row>
-    <row r="476" spans="2:4">
+      <c r="D475" s="194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="476" spans="2:10" ht="15.75" customHeight="1">
       <c r="B476" s="67">
         <v>12</v>
       </c>
       <c r="C476" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="D476" s="67"/>
-    </row>
-    <row r="477" spans="2:4">
+      <c r="D476" s="67" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="477" spans="2:10" ht="15.75" customHeight="1">
       <c r="B477" s="67">
         <v>13</v>
       </c>
       <c r="C477" s="67" t="s">
         <v>1351</v>
       </c>
-      <c r="D477" s="67"/>
-    </row>
-    <row r="478" spans="2:4">
+      <c r="D477" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E477" s="206" t="s">
+        <v>3707</v>
+      </c>
+      <c r="J477" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="478" spans="2:10">
       <c r="B478" s="67">
         <v>14</v>
       </c>
       <c r="C478" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D478" s="67"/>
-    </row>
-    <row r="479" spans="2:4">
+      <c r="D478" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="479" spans="2:10">
       <c r="B479" s="67">
         <v>15</v>
       </c>
       <c r="C479" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D479" s="67"/>
-    </row>
-    <row r="480" spans="2:4">
+      <c r="D479" s="194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="480" spans="2:10">
       <c r="B480" s="67">
         <v>16</v>
       </c>
       <c r="C480" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D480" s="67"/>
+      <c r="D480" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="481" spans="2:4">
       <c r="B481" s="67">
@@ -28727,7 +29074,9 @@
       <c r="C481" s="67" t="s">
         <v>2585</v>
       </c>
-      <c r="D481" s="67"/>
+      <c r="D481" s="194" t="s">
+        <v>2585</v>
+      </c>
     </row>
     <row r="482" spans="2:4">
       <c r="B482" s="67">
@@ -28736,7 +29085,9 @@
       <c r="C482" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="D482" s="67"/>
+      <c r="D482" s="295" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="483" spans="2:4">
       <c r="B483" s="67">
@@ -28745,7 +29096,9 @@
       <c r="C483" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D483" s="67"/>
+      <c r="D483" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="484" spans="2:4">
       <c r="B484" s="67">
@@ -28754,7 +29107,9 @@
       <c r="C484" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D484" s="67"/>
+      <c r="D484" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="485" spans="2:4">
       <c r="B485" s="67">
@@ -28763,7 +29118,9 @@
       <c r="C485" s="67" t="s">
         <v>1361</v>
       </c>
-      <c r="D485" s="67"/>
+      <c r="D485" s="67" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="486" spans="2:4">
       <c r="B486" s="67">
@@ -28772,7 +29129,9 @@
       <c r="C486" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D486" s="67"/>
+      <c r="D486" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="487" spans="2:4">
       <c r="B487" s="67">
@@ -28781,7 +29140,9 @@
       <c r="C487" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D487" s="67"/>
+      <c r="D487" s="286" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="488" spans="2:4">
       <c r="B488" s="67">
@@ -28790,7 +29151,9 @@
       <c r="C488" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D488" s="67"/>
+      <c r="D488" s="67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="489" spans="2:4">
       <c r="B489" s="67">
@@ -28799,7 +29162,9 @@
       <c r="C489" s="67" t="s">
         <v>2691</v>
       </c>
-      <c r="D489" s="67"/>
+      <c r="D489" s="194" t="s">
+        <v>2691</v>
+      </c>
     </row>
     <row r="490" spans="2:4">
       <c r="B490" s="67">
@@ -28808,7 +29173,9 @@
       <c r="C490" s="292" t="s">
         <v>210</v>
       </c>
-      <c r="D490" s="67"/>
+      <c r="D490" s="67" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="491" spans="2:4">
       <c r="B491" s="67">
@@ -28817,7 +29184,9 @@
       <c r="C491" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D491" s="67"/>
+      <c r="D491" s="67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="492" spans="2:4">
       <c r="B492" s="67">
@@ -28826,7 +29195,9 @@
       <c r="C492" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D492" s="67"/>
+      <c r="D492" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="493" spans="2:4">
       <c r="B493" s="67">
@@ -28835,7 +29206,9 @@
       <c r="C493" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="D493" s="67"/>
+      <c r="D493" s="194" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="494" spans="2:4">
       <c r="B494" s="67">
@@ -28844,7 +29217,9 @@
       <c r="C494" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D494" s="67"/>
+      <c r="D494" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="495" spans="2:4">
       <c r="B495" s="67">
@@ -28853,7 +29228,9 @@
       <c r="C495" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D495" s="67"/>
+      <c r="D495" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="496" spans="2:4">
       <c r="B496" s="67">
@@ -28862,320 +29239,438 @@
       <c r="C496" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D496" s="67"/>
+      <c r="D496" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="497" spans="2:4">
       <c r="B497" s="67">
         <v>33</v>
       </c>
-      <c r="C497" s="67"/>
-      <c r="D497" s="67"/>
+      <c r="C497" s="309" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D497" s="67" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="498" spans="2:4">
       <c r="B498" s="67">
         <v>34</v>
       </c>
-      <c r="C498" s="67"/>
-      <c r="D498" s="67"/>
+      <c r="C498" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D498" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="499" spans="2:4">
       <c r="B499" s="67">
         <v>35</v>
       </c>
-      <c r="C499" s="67"/>
-      <c r="D499" s="67"/>
+      <c r="C499" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D499" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="500" spans="2:4">
       <c r="B500" s="67">
         <v>36</v>
       </c>
-      <c r="C500" s="67"/>
-      <c r="D500" s="67"/>
+      <c r="C500" s="67" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D500" s="194" t="s">
+        <v>2691</v>
+      </c>
     </row>
     <row r="501" spans="2:4">
       <c r="B501" s="67">
         <v>37</v>
       </c>
-      <c r="C501" s="67"/>
-      <c r="D501" s="67"/>
+      <c r="C501" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D501" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="502" spans="2:4">
       <c r="B502" s="67">
         <v>38</v>
       </c>
-      <c r="C502" s="67"/>
-      <c r="D502" s="67"/>
+      <c r="C502" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D502" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="503" spans="2:4">
       <c r="B503" s="67">
         <v>39</v>
       </c>
-      <c r="C503" s="67"/>
-      <c r="D503" s="67"/>
+      <c r="C503" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D503" s="194" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="504" spans="2:4">
       <c r="B504" s="67">
         <v>40</v>
       </c>
-      <c r="C504" s="67"/>
-      <c r="D504" s="67"/>
+      <c r="C504" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D504" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="505" spans="2:4">
       <c r="B505" s="67">
         <v>41</v>
       </c>
-      <c r="C505" s="67"/>
-      <c r="D505" s="67"/>
+      <c r="C505" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D505" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="506" spans="2:4">
       <c r="B506" s="67">
         <v>42</v>
       </c>
-      <c r="C506" s="67"/>
-      <c r="D506" s="67"/>
+      <c r="C506" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D506" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="507" spans="2:4">
       <c r="B507" s="67">
         <v>43</v>
       </c>
-      <c r="C507" s="67"/>
-      <c r="D507" s="67"/>
+      <c r="C507" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D507" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="508" spans="2:4">
       <c r="B508" s="67">
         <v>44</v>
       </c>
-      <c r="C508" s="67"/>
-      <c r="D508" s="67"/>
+      <c r="C508" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D508" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="509" spans="2:4">
       <c r="B509" s="67">
         <v>45</v>
       </c>
-      <c r="C509" s="67"/>
-      <c r="D509" s="67"/>
+      <c r="C509" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D509" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="510" spans="2:4">
       <c r="B510" s="67">
         <v>46</v>
       </c>
-      <c r="C510" s="67"/>
-      <c r="D510" s="67"/>
+      <c r="C510" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D510" s="194" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="511" spans="2:4">
       <c r="B511" s="67">
         <v>47</v>
       </c>
-      <c r="C511" s="67"/>
-      <c r="D511" s="67"/>
+      <c r="C511" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D511" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="512" spans="2:4">
       <c r="B512" s="67">
         <v>48</v>
       </c>
-      <c r="C512" s="67"/>
-      <c r="D512" s="67"/>
+      <c r="C512" s="67" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D512" s="67" t="s">
+        <v>3693</v>
+      </c>
     </row>
     <row r="513" spans="2:4">
       <c r="B513" s="67">
         <v>49</v>
       </c>
-      <c r="C513" s="67"/>
-      <c r="D513" s="67"/>
+      <c r="C513" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D513" s="67" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="514" spans="2:4">
       <c r="B514" s="67">
         <v>50</v>
       </c>
-      <c r="C514" s="67"/>
-      <c r="D514" s="67"/>
+      <c r="C514" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D514" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="515" spans="2:4">
       <c r="B515" s="67">
         <v>51</v>
       </c>
-      <c r="C515" s="67"/>
-      <c r="D515" s="67"/>
+      <c r="C515" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D515" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="516" spans="2:4">
       <c r="B516" s="67">
         <v>52</v>
       </c>
-      <c r="C516" s="67"/>
-      <c r="D516" s="67"/>
+      <c r="C516" s="67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D516" s="194" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="517" spans="2:4">
       <c r="B517" s="67">
         <v>53</v>
       </c>
-      <c r="C517" s="67"/>
-      <c r="D517" s="67"/>
+      <c r="C517" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D517" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="518" spans="2:4">
       <c r="B518" s="67">
         <v>54</v>
       </c>
-      <c r="C518" s="67"/>
-      <c r="D518" s="67"/>
+      <c r="C518" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D518" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="519" spans="2:4">
       <c r="B519" s="67">
         <v>55</v>
       </c>
-      <c r="C519" s="67"/>
-      <c r="D519" s="67"/>
+      <c r="C519" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D519" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="520" spans="2:4">
       <c r="B520" s="67">
         <v>56</v>
       </c>
       <c r="C520" s="67"/>
-      <c r="D520" s="67"/>
+      <c r="D520" s="286" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="521" spans="2:4">
       <c r="B521" s="67">
         <v>57</v>
       </c>
-      <c r="C521" s="67"/>
-      <c r="D521" s="67"/>
+      <c r="C521" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D521" s="194" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="522" spans="2:4">
       <c r="B522" s="67">
         <v>58</v>
       </c>
-      <c r="C522" s="67"/>
-      <c r="D522" s="67"/>
+      <c r="C522" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D522" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="523" spans="2:4">
       <c r="B523" s="67">
         <v>59</v>
       </c>
-      <c r="C523" s="67"/>
-      <c r="D523" s="67"/>
+      <c r="C523" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D523" s="194" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="524" spans="2:4">
       <c r="B524" s="67">
         <v>60</v>
       </c>
-      <c r="C524" s="67"/>
-      <c r="D524" s="67"/>
+      <c r="C524" s="292" t="s">
+        <v>210</v>
+      </c>
+      <c r="D524" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="525" spans="2:4">
       <c r="B525" s="67">
         <v>61</v>
       </c>
-      <c r="C525" s="67"/>
-      <c r="D525" s="67"/>
+      <c r="C525" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D525" s="194" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="526" spans="2:4">
       <c r="B526" s="67">
         <v>62</v>
       </c>
-      <c r="C526" s="67"/>
-      <c r="D526" s="67"/>
+      <c r="C526" s="292" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D526" s="194" t="s">
+        <v>2691</v>
+      </c>
     </row>
     <row r="527" spans="2:4">
       <c r="B527" s="67">
         <v>63</v>
       </c>
-      <c r="C527" s="67"/>
-      <c r="D527" s="67"/>
+      <c r="C527" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D527" s="67" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="528" spans="2:4">
       <c r="B528" s="67">
         <v>64</v>
       </c>
-      <c r="C528" s="67"/>
-      <c r="D528" s="67"/>
+      <c r="C528" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D528" s="67" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="529" spans="2:4">
       <c r="B529" s="67">
         <v>65</v>
       </c>
-      <c r="C529" s="67"/>
-      <c r="D529" s="67"/>
+      <c r="C529" s="67" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D529" s="194" t="s">
+        <v>2728</v>
+      </c>
     </row>
     <row r="530" spans="2:4">
       <c r="B530" s="67">
         <v>66</v>
       </c>
-      <c r="C530" s="67"/>
-      <c r="D530" s="67"/>
+      <c r="C530" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D530" s="194" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="531" spans="2:4">
-      <c r="B531" s="67">
-        <v>67</v>
-      </c>
+      <c r="B531" s="67"/>
       <c r="C531" s="67"/>
       <c r="D531" s="67"/>
     </row>
     <row r="532" spans="2:4">
-      <c r="B532" s="67">
-        <v>68</v>
+      <c r="B532" s="67" t="s">
+        <v>3694</v>
       </c>
       <c r="C532" s="67"/>
       <c r="D532" s="67"/>
     </row>
     <row r="533" spans="2:4">
-      <c r="B533" s="67">
-        <v>69</v>
+      <c r="B533" s="208">
+        <v>0.75</v>
       </c>
       <c r="C533" s="67"/>
       <c r="D533" s="67"/>
     </row>
     <row r="534" spans="2:4">
-      <c r="B534" s="67">
-        <v>70</v>
-      </c>
+      <c r="B534" s="67"/>
       <c r="C534" s="67"/>
       <c r="D534" s="67"/>
     </row>
     <row r="535" spans="2:4">
-      <c r="B535" s="67">
-        <v>71</v>
-      </c>
+      <c r="B535" s="67"/>
       <c r="C535" s="67"/>
       <c r="D535" s="67"/>
     </row>
     <row r="536" spans="2:4">
-      <c r="B536" s="67">
-        <v>72</v>
-      </c>
+      <c r="B536" s="67"/>
       <c r="C536" s="67"/>
       <c r="D536" s="67"/>
     </row>
     <row r="537" spans="2:4">
-      <c r="B537" s="67">
-        <v>73</v>
-      </c>
+      <c r="B537" s="67"/>
       <c r="C537" s="67"/>
       <c r="D537" s="67"/>
     </row>
     <row r="538" spans="2:4">
-      <c r="B538" s="67">
-        <v>74</v>
-      </c>
+      <c r="B538" s="67"/>
       <c r="C538" s="67"/>
       <c r="D538" s="67"/>
     </row>
     <row r="539" spans="2:4">
-      <c r="B539" s="67">
-        <v>75</v>
-      </c>
+      <c r="B539" s="67"/>
       <c r="C539" s="67"/>
       <c r="D539" s="67"/>
     </row>
     <row r="540" spans="2:4">
-      <c r="B540" s="67">
-        <v>76</v>
-      </c>
+      <c r="B540" s="67"/>
       <c r="C540" s="67"/>
       <c r="D540" s="67"/>
     </row>
     <row r="541" spans="2:4">
-      <c r="B541" s="67">
-        <v>77</v>
-      </c>
+      <c r="B541" s="67"/>
       <c r="C541" s="67"/>
       <c r="D541" s="67"/>
     </row>
@@ -29190,7 +29685,7 @@
   <dimension ref="A2:AL1425"/>
   <sheetViews>
     <sheetView topLeftCell="A1366" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1389" sqref="A1389"/>
+      <selection activeCell="G1382" sqref="G1382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -34953,7 +35448,7 @@
         <v>1568</v>
       </c>
       <c r="C1310" s="222" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1312" spans="1:10">
@@ -35141,42 +35636,42 @@
         <v>62</v>
       </c>
       <c r="B1330" s="120" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1332" spans="1:5">
       <c r="C1332" s="120" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1334" spans="1:5">
       <c r="D1334" s="120" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1335" spans="1:5">
       <c r="E1335" s="207" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="1336" spans="1:5">
       <c r="E1336" s="207" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1337" spans="1:5">
       <c r="E1337" s="82" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
       <c r="E1339" s="120" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
       <c r="E1341" s="120" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="1345" spans="1:10">
@@ -35186,48 +35681,48 @@
     </row>
     <row r="1347" spans="1:10">
       <c r="E1347" s="207" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1348" spans="1:10">
       <c r="E1348" s="82" t="s">
+        <v>3622</v>
+      </c>
+      <c r="J1348" s="120" t="s">
         <v>3624</v>
-      </c>
-      <c r="J1348" s="120" t="s">
-        <v>3626</v>
       </c>
     </row>
     <row r="1349" spans="1:10">
       <c r="E1349" s="82" t="s">
+        <v>3623</v>
+      </c>
+      <c r="J1349" s="120" t="s">
         <v>3625</v>
-      </c>
-      <c r="J1349" s="120" t="s">
-        <v>3627</v>
       </c>
     </row>
     <row r="1353" spans="1:10" s="305" customFormat="1">
       <c r="A1353" s="305" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1355" spans="1:10">
       <c r="B1355" s="120" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="1356" spans="1:10">
       <c r="B1356" s="120" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1358" spans="1:10">
       <c r="C1358" s="207" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1359" spans="1:10">
       <c r="C1359" s="82" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="1360" spans="1:10">
@@ -35237,27 +35732,27 @@
     </row>
     <row r="1361" spans="1:3">
       <c r="C1361" s="82" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
       <c r="C1362" s="82" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
       <c r="C1363" s="82" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
       <c r="C1364" s="82" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
       <c r="C1365" s="82" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -35272,32 +35767,32 @@
     </row>
     <row r="1369" spans="1:3">
       <c r="C1369" s="120" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
       <c r="C1370" s="120" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
       <c r="A1375" s="120" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
       <c r="C1378" s="207" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
       <c r="C1379" s="82" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
       <c r="C1380" s="82" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -35312,12 +35807,12 @@
     </row>
     <row r="1384" spans="1:3">
       <c r="C1384" s="207" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
       <c r="C1385" s="82" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -35327,7 +35822,7 @@
     </row>
     <row r="1389" spans="1:3">
       <c r="A1389" s="229" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -35335,7 +35830,7 @@
     </row>
     <row r="1391" spans="1:3">
       <c r="A1391" s="228" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -35343,7 +35838,7 @@
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393" s="206" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
@@ -35351,7 +35846,7 @@
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395" s="206" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
@@ -35359,7 +35854,7 @@
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397" s="228" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
@@ -35367,7 +35862,7 @@
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399" s="206" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
@@ -35375,7 +35870,7 @@
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401" s="228" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
@@ -35383,7 +35878,7 @@
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403" s="229" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
@@ -35391,7 +35886,7 @@
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405" s="230" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
@@ -35399,7 +35894,7 @@
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407" s="231" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
@@ -35407,7 +35902,7 @@
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409" s="230" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
@@ -35415,7 +35910,7 @@
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411" s="232" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
@@ -35423,7 +35918,7 @@
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413" s="230" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
@@ -35431,7 +35926,7 @@
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415" s="231" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
@@ -35439,7 +35934,7 @@
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417" s="230" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
@@ -35447,7 +35942,7 @@
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419" s="231" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
@@ -35455,7 +35950,7 @@
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421" s="230" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
@@ -35471,7 +35966,7 @@
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425" s="230" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
   </sheetData>
@@ -35482,10 +35977,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35581,21 +36076,21 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" t="s">
-        <v>3555</v>
+      <c r="B23" s="36" t="s">
+        <v>3695</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="C25" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="M25" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75">
       <c r="E26" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="M26" t="s">
         <v>3552</v>
@@ -35603,58 +36098,218 @@
     </row>
     <row r="27" spans="2:13">
       <c r="E27" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="E28" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="E34" t="s">
+        <v>3561</v>
+      </c>
+      <c r="J34" t="s">
         <v>3562</v>
       </c>
-      <c r="J34" t="s">
+      <c r="N34" t="s">
         <v>3563</v>
       </c>
-      <c r="N34" t="s">
-        <v>3564</v>
-      </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" t="s">
-        <v>3600</v>
+      <c r="B39" s="36" t="s">
+        <v>3696</v>
       </c>
     </row>
     <row r="41" spans="2:14">
       <c r="C41" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="43" spans="2:14">
       <c r="D43" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="45" spans="2:14">
       <c r="E45" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="47" spans="2:14">
       <c r="E47" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="E48" t="s">
-        <v>3605</v>
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="D55" s="82" t="s">
+        <v>3698</v>
+      </c>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="D56" s="311" t="s">
+        <v>3699</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="D57" s="82" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="D58" s="82" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43" t="s">
+        <v>3705</v>
+      </c>
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="D59" s="55"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="D60" s="311" t="s">
+        <v>3701</v>
+      </c>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="D61" s="82" t="s">
+        <v>3700</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>3702</v>
+      </c>
+      <c r="J61" s="43" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="D62" s="82" t="s">
+        <v>3704</v>
+      </c>
+      <c r="I62" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="C3" s="58" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="C5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F5" s="312"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="D6" s="68" t="s">
+        <v>3711</v>
       </c>
     </row>
   </sheetData>
@@ -40877,7 +41532,7 @@
     </row>
     <row r="178" spans="2:10">
       <c r="C178" s="39" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="179" spans="2:10">
